--- a/updated.xlsx
+++ b/updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Title</t>
   </si>
@@ -25,94 +25,19 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge </t>
-  </si>
-  <si>
-    <t>Dorin’s Commitment to a PFAS-free Future in Refrigeration</t>
-  </si>
-  <si>
-    <t>Hanbell Consistently Launches High-efficiency Screw Compressor Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What if a #DORIN starter pack looked like this?  What would you still include in the ultimate DORIN sta</t>
-  </si>
-  <si>
-    <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled</t>
-  </si>
-  <si>
-    <t>Fernwärme-Konferenz fokussiert Fernwärmeausbau</t>
-  </si>
-  <si>
-    <t>Danfoss Thermostatköpfe tauschen leicht gemacht.</t>
-  </si>
-  <si>
-    <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge sol</t>
-  </si>
-  <si>
-    <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower oper</t>
-  </si>
-  <si>
-    <t>Danfoss Turbocor: The new Turbocor plant in Tallahassee showcases advanced automation in the manufacturing process</t>
-  </si>
-  <si>
-    <t>Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge of manually balancing heating systems—adjusting valves, wasting time, and struggling to get it just right. Find out how dynamic balancing solutions can eliminate these inefficiencies, improve comfort, and reduce energy costs in multi-family buildings.  Listen to the full episode now: https://bit.ly/4208oG3#TakingTheTemperatureOnHVACR #HydronicBalancing #MultiFamilyBuildings #</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Officine Mario Dorin is actively addressing the transition away from PFAS in refrigeration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In response to the growing demand for high-efficiency products, Hanbell launched the RM-Pro series PM VFD screw compressor in 2024.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What if a #DORIN starter pack looked like this? What would you still include in the ultimate DORIN starter kit? Drop it in the comments! At DORIN, we know it takes more than tools – it takes passion, innovation, and a serious love for CO₂You can’t box experience, but you can show what it means to be #Born2Freeze Image created with #AI#trend #artificialintelligence #DORIN #Born2Freeze #since1918 #passion #familybusiness #NatRefs #Innovation #RefrigerationTech #HVACR #CO2cooling #R744 #NaturalRe</t>
-  </si>
-  <si>
-    <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled systems.  Find all the insights for building better chillers here: https://bit.ly/3WEIIvK#Animation #Chiller #WaterCooled #HVAC</t>
-  </si>
-  <si>
-    <t>Die Expertenvorträge der diesjährigen Danfoss Fernwärme-Konferenz befassen sich mit allen zentralen Herausforderungen der Fernwärmewende – von der Projektplanung über die Dekarbonisierung der Netze durch die Nutzung alternativer Wärmequellen bis zur Optimierung des Netzbetriebs. Praxisbeispiele runden die Vortragsreihe ab. Interessierte haben die Möglichkeit, sich im Rahmen der Online-Veranstaltung vom 20. bis 22. Mai über planerische, technische, rechtliche und wirtschaftliche Aspekte der Umsetzung von Fer</t>
-  </si>
-  <si>
-    <t>Alt gegen Neu: Wir zeigen Ihnen welcher Kopf in welchem Anwendungsfall am besten passt!</t>
-  </si>
-  <si>
-    <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge solutions using #R290. This technology marks a major step forward for the industry, combining #sustainability with high performance.Frascold’s expertise in #NaturalRefrigerant applications played a key role in developing an efficient, low-impact system. Read the full #article to learn more: https://lnkd.in/dnnKbvQ2</t>
-  </si>
-  <si>
-    <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower operational expenses while also improving your building’s overall performance?  Danfoss provides retrofit solutions that enhance your building’s efficiency, enabling you to reduce costs and increase long-term value. Let’s work together to retrofit your buildings.  Learn more here: https://bit.ly/4iwG0RO#Retrofit #CommercialBuildings #DanfossClimateSolutions #HVAC</t>
-  </si>
-  <si>
-    <t>The video shows a factory tour of the new Danfoss Turbocor plant in Tallahassee, Florida, showcasing the production process that involves a high level of automation. One of the notable features highlighted is the fully automated end-of-line test that is conducted using the actual refrigerant, emphasizing the advanced technology and precision involved in the manufacturing process at the plant.</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=b01c4e6f8083a16b3a20e34b1e022d0a</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=18debb0f2c3e6e3b7d25430920421a22</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=2cf8c21ed9c2e686e7c686a1b96d0114</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=ce2529ff2b123370a9094c42f798e38e</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=7cd2a445229eb1fda333fb538ee45c25</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=42a2f3609d659ef16f420773548b8751</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=134f480ca759c54bb2a1faab409691f6</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=3be65020d7314f8670ef573adfe20c59</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=679bc7f8f10cd4d4ebd9d1eb9175085d</t>
-  </si>
-  <si>
-    <t>https://my.intelligence2day.com/cc/view/article/?a=C5E7DD06472E34C4B5FD1D452435834B</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors an</t>
+  </si>
+  <si>
+    <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors and #NaturalRefrigerants.Designed to ensure reliable performance in challenging conditions, the system uses #R290 in the low stage and #R600a in the high stage, operating efficiently from -20°C outdoor temperature up to 90°C supply temperature. The configuration also allows for flexible installation and reduced acoustic impact , key factors in modern #HVAC design.Discover how Fra</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7329086445384552448</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
   </si>
 </sst>
 </file>
@@ -173,12 +98,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Summary"/>
     <tableColumn id="3" name="URL"/>
+    <tableColumn id="4" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,133 +411,31 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/updated.xlsx
+++ b/updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="883">
   <si>
     <t>Title</t>
   </si>
@@ -28,13 +28,76 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Industrial refrigeration is evolving, and CO2 is gaining ground. Copeland’s Vilter CO2 transcritical single-screw compresso</t>
+    <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão</t>
+  </si>
+  <si>
+    <t>In collaboration with North American Sustainable Refrigeration Council (NASRC)’s Natural Refrigerants Webinar Series, Copeland’s</t>
+  </si>
+  <si>
+    <t>CO₂ refrigeration doesn’t have to be intimidating. Whether you’re new to it or building your skillset, Copeland is com</t>
+  </si>
+  <si>
+    <t>Earlier in May, Copeland attended an inspiring #CIBF2025. This year’s event showcased our commitment to reshaping the green</t>
+  </si>
+  <si>
+    <t>Rail heat control in supermarket HVAC-R systems is often overlooked, yet it holds significant potential for energy savings. Join</t>
+  </si>
+  <si>
+    <t>We’re thrilled to share that our #Frascold #compressors were showcased at REFRIGAIR EXPO in Casablanca, thanks to our partn</t>
+  </si>
+  <si>
+    <t>DALLMER: Sicherer Umgang mit Wasser – von der Ver- zur Entsorgung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The IPS 8 Air Purger, a highly efficient solution in industrial refrigeration, is now available with propane (R290). Propane is </t>
+  </si>
+  <si>
+    <t>Copeland partners with Ecozen to aid agriculture sector</t>
+  </si>
+  <si>
+    <t>Copeland Renovates Cudahy Facility for Vilter Industrial Compressors</t>
+  </si>
+  <si>
+    <t>Designed for liquid, suction, and hot gas lines with ammonia and fluorinated refrigerants, EVRAT 20 valves feature assisted lift</t>
+  </si>
+  <si>
+    <t>Intelligent heating made simple: Danfoss and E.ON One join forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Pittsburgh (PA) in March, to Irwindale (CA) in April, and most recently St. Paul (MN), our journey with the North American </t>
+  </si>
+  <si>
+    <t>Meet the new Burner Fuel Mobile Pump from Danfoss, engineered for compact mobile heating applications. Whether it’s high-pressur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 5 days left until our RETHINK Live session on retrofitting commercial buildings! Discover how the revised EPBD and Danfoss </t>
+  </si>
+  <si>
+    <t>Discover a new era of efficiency with Scout, the new AI-powered feature in Copeland Mobile designed to streamline your search fo</t>
+  </si>
+  <si>
+    <t>Thank you to everyone who joined our recent webinar with ACCA! It was an insightful presentation that covered:</t>
+  </si>
+  <si>
+    <t>Hanbell Sales in Q1 2025 have decreased by 19% compared to last year quarter</t>
+  </si>
+  <si>
+    <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating</t>
+  </si>
+  <si>
+    <t>The transition to lower-GWP refrigerants can be a source of stress for small grocers who lack the resources and a clear action p</t>
+  </si>
+  <si>
+    <t>NeoCharge offers a straightforward solution to enhance the efficiency of both new and existing industrial refrigeration systems.</t>
+  </si>
+  <si>
+    <t>Copeland: CO2 Solutions from Copeland for Industrial Refrigeration</t>
   </si>
   <si>
     <t>GEA GROUP News</t>
   </si>
   <si>
-    <t>We’re excited to announce the launch of our Heat Recovery Tool!  Excess heat is a huge untapped energy source, and r</t>
+    <t>Danfoss launches Heat Recovery Tool</t>
   </si>
   <si>
     <t>High performance, low environmental impact. #Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC s</t>
@@ -73,7 +136,7 @@
     <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transc</t>
   </si>
   <si>
-    <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors an</t>
+    <t>Frascold: Video tour with Customer TEON on a R290/R600a unit</t>
   </si>
   <si>
     <t>Danfoss to launch AK-CC25 controller for refrigerated display cases</t>
@@ -148,7 +211,7 @@
     <t>Danfoss launches CO2/water brazed heat exchanger for transcritical systems</t>
   </si>
   <si>
-    <t>Introducing the Danfoss CO₂/Water Brazed Heat Exchanger for Transcritical Systems</t>
+    <t>Danfoss: Introducing the Danfoss CO₂/Water Brazed Heat Exchanger for Transcritical Systems</t>
   </si>
   <si>
     <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability</t>
@@ -160,12 +223,12 @@
     <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manag</t>
   </si>
   <si>
+    <t>Copeland expands US partnership with Mysa smart thermostats</t>
+  </si>
+  <si>
     <t>Copeland News</t>
   </si>
   <si>
-    <t>Copeland expands US partnership with Mysa smart thermostats</t>
-  </si>
-  <si>
     <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in</t>
   </si>
   <si>
@@ -619,15 +682,15 @@
     <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on gr...</t>
   </si>
   <si>
+    <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
+  </si>
+  <si>
     <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
   </si>
   <si>
-    <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
-  </si>
-  <si>
-    <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
-  </si>
-  <si>
     <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
   </si>
   <si>
@@ -781,124 +844,106 @@
     <t>DORIN USA: Focusing on CO₂</t>
   </si>
   <si>
-    <t>Danfoss and Microsoft expand AI collaboration to cut food waste and emissions in food retail</t>
-  </si>
-  <si>
-    <t>Smart HVAC: 5 Must-Knows for Contractors</t>
-  </si>
-  <si>
-    <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Fl</t>
-  </si>
-  <si>
-    <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharin</t>
-  </si>
-  <si>
-    <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innova</t>
-  </si>
-  <si>
-    <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and clou</t>
-  </si>
-  <si>
-    <t>Day 1 Highlights from cippe China Snowman Group made a strong presence at Booth E3555, showcasing a range of innovative products</t>
-  </si>
-  <si>
-    <t>Kristian Strand folgt Jürgen Fischer als Präsident von Danfoss Climate Solutions</t>
-  </si>
-  <si>
-    <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre  Date: Ap</t>
-  </si>
-  <si>
-    <t>At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regula</t>
-  </si>
-  <si>
-    <t>#Frascold at ISH Frankfurt 2025: Innovation in Action! Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminiu</t>
-  </si>
-  <si>
-    <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of</t>
-  </si>
-  <si>
-    <t>Danfoss announces production launch of Editron ED3 onboard charger and ePTO, bringing rapid AC charging to off-highway applicati</t>
-  </si>
-  <si>
-    <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lie</t>
-  </si>
-  <si>
-    <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out. On</t>
-  </si>
-  <si>
-    <t>Copeland: Interview with Copeland CTO on R&amp;D on Compressors</t>
-  </si>
-  <si>
-    <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!   Venue: Riyadh Front, Saudi</t>
-  </si>
-  <si>
-    <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This vi</t>
-  </si>
-  <si>
-    <t>Dennis Appel to Lead New Danfoss Controls and Thermal Management Division</t>
-  </si>
-  <si>
-    <t>Copeland Aggressively Expands Its Compressor Portfolio</t>
-  </si>
-  <si>
-    <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to yo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is </t>
-  </si>
-  <si>
-    <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what k</t>
-  </si>
-  <si>
-    <t>What an incredible week at ISH Frankfurt 2025! A huge th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX? </t>
-  </si>
-  <si>
-    <t>#ISH2025 is a wrap!   Thank you everyone for these amazing 5 days where we have discovered all our different technologies to ...</t>
-  </si>
-  <si>
-    <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and ex</t>
-  </si>
-  <si>
-    <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building manag</t>
-  </si>
-  <si>
-    <t>Industrial refrigeration is evolving, and CO2 is gaining ground. Copeland’s Vilter CO2 transcritical single-screw compressor was designed to withstand high pressures and overcome the limitations of multiple-compressor rack systems in high-tonnage industrial applications. Combined with our CO2 subcritical single-screw compressor, we’re providing complete CO2 solutions that enable the next generation of reliable, efficient and sustainable industrial refrigeration.Discover the future of industrial CO2. #Indu</t>
+    <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão impulsionando a transição energética e acelerando a adoção de...</t>
+  </si>
+  <si>
+    <t>In collaboration with North American Sustainable Refrigeration Council (NASRC)’s Natural Refrigerants Webinar Series, Copeland’s Andre Patenaude, CET and Henderson Engineers’ Trevor Jones will...</t>
+  </si>
+  <si>
+    <t>CO₂ refrigeration doesn’t have to be intimidating.Whether you’re new to it or building your skillset, Copeland is committed to easing the transition to CO₂ for all skill levels. A recent article by...</t>
+  </si>
+  <si>
+    <t>Earlier in May, Copeland attended an inspiring #CIBF2025. This year’s event showcased our commitment to reshaping the green future of the battery industry. With scalable, forward-thinking solutions,...</t>
+  </si>
+  <si>
+    <t>Rail heat control in supermarket HVAC-R systems is often overlooked, yet it holds significant potential for energy savings. Join our live event ‘Optimizing Rail Heat Control for Energy Efficient...</t>
+  </si>
+  <si>
+    <t>We’re thrilled to share that our #Frascold #compressors were showcased at REFRIGAIR EXPO in Casablanca, thanks to our partnership with #LeFroidPolaire and Tecumseh!An unmissable event for the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.07.2025 um 10:45 - 17:00 Uhr im Dorint Hotel Potsdam Infos zur Live Session Jeder Mensch hat andere Vorstellungen von seinem privaten Traumbad.</t>
+  </si>
+  <si>
+    <t>The IPS 8 Air Purger, a highly efficient solution in industrial refrigeration, is now available with propane (R290). Propane is an environmentally friendly refrigerant with low GWP and high...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copeland, a global provider of sustainable heating, cooling, cold chain and industrial solutions, has partnered with Ecozen to develop an innovative solar-powered cold storage system to benefit...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On April 25, Copeland announced the completion of a significant renovation of its Vilter brand’s facility in Cudahy, Wisconsin.</t>
+  </si>
+  <si>
+    <t>Designed for liquid, suction, and hot gas lines with ammonia and fluorinated refrigerants, EVRAT 20 valves feature assisted lift and are specially crafted to open and remain open at a pressure drop...</t>
+  </si>
+  <si>
+    <t>Danfoss and E.ON One present an all-in-one solution combining hardware and software that saves up to 30% energy and enables significant CO₂ reductions for both existing and new buildings.</t>
+  </si>
+  <si>
+    <t>From Pittsburgh (PA) in March, to Irwindale (CA) in April, and most recently St. Paul (MN), our journey with the North American Sustainable Refrigeration Council (NASRC) in occasion of the Natural...</t>
+  </si>
+  <si>
+    <t>Meet the new Burner Fuel Mobile Pump from Danfoss, engineered for compact mobile heating applications. Whether it’s high-pressure cleaners, open-air heaters, or vehicle heating systems, the BFM pump...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 22, 2025 Danfoss and E.ON One present an all-in-one solution combining hardware and software that saves up to 30% energy and enables significant CO₂ reductions for both existing and new...</t>
+  </si>
+  <si>
+    <t>Only 5 days left until our RETHINK Live session on retrofitting commercial buildings! Discover how the revised EPBD and Danfoss solutions can help you drive energy efficiency and support your...</t>
+  </si>
+  <si>
+    <t>Discover a new era of efficiency with Scout, the new AI-powered feature in Copeland Mobile designed to streamline your search for critical information. Scout delivers HVACR-specific insights sourced...</t>
+  </si>
+  <si>
+    <t>Thank you to everyone who joined our recent webinar with ACCA! It was an insightful presentation that covered:• Modulation and compressor selection• Why mixing A2L refrigerants and compressors isn’t...</t>
+  </si>
+  <si>
+    <t>Hanbell reports a decline in sales in the first quarter of 2025 (-19% compared to Q1 2024). The sales include both the compressor business, including air and refrigerant compressors, as well as...</t>
+  </si>
+  <si>
+    <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating optimization. By integrating Danfoss’ Leanheat® Building software with...</t>
+  </si>
+  <si>
+    <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating optimization. By integrating Danfoss’s Leanheat® Building software...</t>
+  </si>
+  <si>
+    <t>The transition to lower-GWP refrigerants can be a source of stress for small grocers who lack the resources and a clear action plan. Unsurprisingly, many are turning to their trusted contractors to...</t>
+  </si>
+  <si>
+    <t>NeoCharge offers a straightforward solution to enhance the efficiency of both new and existing industrial refrigeration systems. By minimizing ammonia charge, it improves system safety and...</t>
+  </si>
+  <si>
+    <t>Industrial refrigeration is evolving, and CO2 is gaining ground. Copeland’s Vilter CO2 transcritical single-screw compressor was designed to withstand high pressures and overcome the limitations of...</t>
   </si>
   <si>
     <t xml:space="preserve"> GEA Group is one of the world’s largest suppliers of systems and components to the food beverage , and pharmaceutical sectors.</t>
   </si>
   <si>
-    <t>We’re excited to announce the launch of our Heat Recovery Tool!  Excess heat is a huge untapped energy source, and recovering it can bring you numerous advantages: - Energy efficiency - Reduced carbon emissions - Cost savings Our tool is designed to help you unlock the potential of heat recovery in your operations. It provides essential data to evaluate heat recovery opportunities effectively.  Watch the video to learn more, then head over to our website: https://bit.ly/4jRyukILet’s get starte</t>
-  </si>
-  <si>
-    <t>High performance, low environmental impact.#Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC systems, with semi-hermetic #compressors capable of operating with #natural #hydrocarbons at temperatures up to 13502f°C.Ideal for high-temperature #HeatPumps and process applications, it’s a reliable choice for those seeking efficiency, durability and sustainability in a single technology. Learn more about the technical features and application benefits in the full #article: https:/</t>
-  </si>
-  <si>
-    <t>Proud to see Copeland leading the way as the Awards Partner at #REFCOLD India 2025! Hear from Mr. Jaya Kumar Kandanchathampilli, Vice President Sales, India, Middle East &amp; Africa, on how Copeland is driving cold chain innovation across the region.</t>
+    <t>The Heat Recovery Tool is designed to help you evaluate opportunities for capturing and reusing excess heat, thereby improving energy efficiency, reducing costs, and lowering greenhouse gas...</t>
+  </si>
+  <si>
+    <t>High performance, low environmental impact.#Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC systems, with semi-hermetic #compressors capable of operating with #natural...</t>
+  </si>
+  <si>
+    <t>Proud to see Copeland leading the way as the Awards Partner at #REFCOLD India 2025! Hear from Mr. Jaya Kumar Kandanchathampilli, Vice President Sales, India, Middle East &amp; Africa, on how Copeland is...</t>
   </si>
   <si>
     <t xml:space="preserve"> | Druckvorschau Im Danfoss-Event werden zentrale Anforderungen der Gesetzesnovelle erläutert und Best Practices zur Steigerung der Gebäudeenergieeffizienz vorgestellt.</t>
   </si>
   <si>
-    <t>Modulating compressors: Scroll, digital, VFD—what’s the difference, and how do you know which one is right for your application? In this quick breakdown, Tony Mormino cuts through the confusion and explains when and why you’d use each type.</t>
+    <t>Modulating compressors: Scroll, digital, VFD—what’s the difference, and how do you know which one is right for your application? In this quick breakdown, Tony Mormino cuts through the confusion and...</t>
   </si>
   <si>
     <t xml:space="preserve"> May 19, 2025 As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering</t>
   </si>
   <si>
-    <t>As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering factory in Tianjin on May 18, highlighting the strong economic ties between Denmark and China and the role of green innovation in their future cooperation.</t>
-  </si>
-  <si>
-    <t>Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin! A global network of professionals committed to ethical leadership and community service - a network in which several of our own team members proudly take part mario dorin - Giovanni Dorin - Massimo Casini - Giacomo PisanoDuring the visit, we confirmed our strong shared values: friendship, integrity, professionalism, and solidarityGuests were very impressed by how deeply #sustainability is embedded in Dorin’</t>
-  </si>
-  <si>
-    <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest share of energy consumption, how can food retailers stay competitive while reducing their environmental footprint?At Danfoss, we believe the answer lies in smart, scalable solutions that optimize efficiency—from case to cloud. Our Smart Store concept brings these solutions to life, demonstrating how supermarkets can cut operational costs, minimize food loss, and reduce emissions—a</t>
+    <t>As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering factory in Tianjin on May 18, highlighting the strong economic ties...</t>
+  </si>
+  <si>
+    <t>Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin! A global network of professionals committed to ethical leadership and community service - a network in...</t>
+  </si>
+  <si>
+    <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest share of energy consumption, how can food retailers stay competitive...</t>
   </si>
   <si>
     <t xml:space="preserve"> May 13, 2025 HUZHOU, China – Danfoss Power Solutions’ Editron division has delivered its first eHydraulic Power Module to SANY for the electrification of a 200-tonne lattice-boom crawler crane.</t>
@@ -910,37 +955,37 @@
     <t xml:space="preserve"> April 14, 2025 China · Shanghai - 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre.</t>
   </si>
   <si>
-    <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defrost, which saves energy and maintains food quality by defrosting only what’s needed to keep the evaporator ice-free. Plus, the controller offers the option of using hot gas for efficient defrosting  Our animation shows how it works in detail. For more information, explore the data sheets available here: https://bit.ly/3Ar4RoM#HotGasDefrosting #AKCC55 #Controller #Animation</t>
-  </si>
-  <si>
-    <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transcritical CO₂ systems, H48T-CH features the patented Micro Plate™ technology to optimize heat recovery applications with water and CO₂. The result? Improved heat transfer, enhanced system efficiency, and a reduced environmental footprint.02f Its compact, frame-free design allows for easier installation and more space-efficient CO₂ systems—supporting the industry’s shift toward sustainable, hi</t>
-  </si>
-  <si>
-    <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors and #NaturalRefrigerants.Designed to ensure reliable performance in challenging conditions, the system uses #R290 in the low stage and #R600a in the high stage, operating efficiently from -20°C outdoor temperature up to 90°C supply temperature. The configuration also allows for flexible installation and reduced acoustic impact , key factors in modern #HVAC design.Discover how Fra</t>
+    <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defrost, which saves energy and maintains food quality by defrosting only...</t>
+  </si>
+  <si>
+    <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transcritical CO₂ systems, H48T-CH features the patented Micro Plate™ technology to...</t>
+  </si>
+  <si>
+    <t>In the video interview, TEON presents their T140 dual-stage air-to-water unit, which is equipped with Frascold compressors and uses natural refrigerants such as R290 and R600a. The system is designed...</t>
   </si>
   <si>
     <t xml:space="preserve"> Danfoss has announced the upcoming launch of the AK-CC25, a new controller designed for plug-in and remote TXV refrigerated display cases.</t>
   </si>
   <si>
-    <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!    Venue: Fuzhou Strait International Conference &amp; Exhibition Center Date: June 13-15, 2025 Booth: 2B33 We look forward to seeing you there! #SnowmanGroup #SRMTEC #refrigerationsolutions #HVAC</t>
-  </si>
-  <si>
-    <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies driving the energy transition and accelerating the adoption of low-GWP refrigerants.From battery R&amp;D and manufacturing to transportation, energy storage and E-buses, we’re delivering innovative solutions that redefine sustainability in the battery industry.Our technologies enhance operational efficiency, extend equipment lifecycles, and lower emissions, advancing the future of greener</t>
+    <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!    Venue: Fuzhou Strait International Conference &amp; Exhibition Center...</t>
+  </si>
+  <si>
+    <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies driving the energy transition and accelerating the adoption of low-GWP...</t>
   </si>
   <si>
     <t>DENMARK: Danfoss is set to introduce a new high performance controller for plug-in and remote TXV refrigerated display cases.</t>
   </si>
   <si>
-    <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-22 in St. Paul, MN. The FREE event offers #refrigeration #technicians diverse training opportunities on the latest CO2 and propane technologies from leading industry experts.Gain knowledge of the latest #natural #refrigerant capabilities to prepare for the future of refrigeration: https://ow.ly/AyVz50VTg8E#GoNatRefs</t>
+    <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-22 in St. Paul, MN. The FREE event offers #refrigeration #technicians diverse...</t>
   </si>
   <si>
     <t xml:space="preserve"> SANY is working to develop fully electric versions of its higher capacity crawler cranes, having previously electrified its lower capacity models.</t>
   </si>
   <si>
-    <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative and technological changes with solutions meeting the customers’ requirements. An example of this is our PSF scroll compressor for R32 that is capable of operating at down to –40°C, appropriate for low ambient conditions. We’re also expanding into the industrial heat pump market, addressing process heating needs above 100°C.  Learn more about our approach to these market shifts: ht</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped!We were proud to be #bronzesponsors of this year’s #ATMO #Australia, where natural refrigerants and sustainable innovation took center stage.From powerful panel discussions to insightful case studies, the event was a fantastic opportunity to connect with industry leaders and reaffirm our commitment to a cleaner, greener future - one #CO₂ #Dorin #Compressor at a time.At Dorin, we continue to pioneer #natural #refrigeration solutions that help reduce climate impac</t>
+    <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative and technological changes with solutions meeting the customers’...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped!We were proud to be #bronzesponsors of this year’s #ATMO #Australia, where natural refrigerants and sustainable innovation took center stage.From powerful panel...</t>
   </si>
   <si>
     <t xml:space="preserve"> Danfoss Sensing Solutions has introduced the DST G290 Gas Sensor series for use in HVAC and commercial refrigeration systems operating with propane (R290) refrigerant.</t>
@@ -952,22 +997,22 @@
     <t>The new line of gas detection sensors by Danfoss Sensing Solutions features photoacoustic technology and a patented inverted design and is intended for HVAC and commercial refrigeration systems.</t>
   </si>
   <si>
-    <t>We are hiring!SRM Italy is constantly growing and committed to global projects.We are currently looking for motivated and determined individuals to grow with us in the following roles: Sales Area Manager Production Planner Senior Designer - Compressor DesignIn a young, dynamic and multicultural environment, where professionals from all over the world collaborate, we promote a stimulating working environment, oriented towards continuous development and the enhancement of individual skills.We ar</t>
-  </si>
-  <si>
-    <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditioning and refrigeration industry, began on May 12 and will end on May 30. These awards celebrate groundbreaking products, technologies and industry leaders shaping the future of HVAC.Team Copeland has been named as a finalist in three categories: Legends Award: Rajan Rajendran Commercial Product of the Year: Copeland Mobile with Scout AI Residential Product of the Year: Cop</t>
+    <t>We are hiring!SRM Italy is constantly growing and committed to global projects.We are currently looking for motivated and determined individuals to grow with us in the following roles: Sales Area...</t>
+  </si>
+  <si>
+    <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditioning and refrigeration industry, began on May 12 and will end on May...</t>
   </si>
   <si>
     <t xml:space="preserve"> Fresh Del Monte Produce Inc. (NYSE: FDP), Freeport Warehouse LLC, a subsidiary of North American Stevedoring Holding Co., and Port Freeport have</t>
   </si>
   <si>
-    <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking back, it’s been an incredible journey. One of the most memorable moments for me was being part of the transition of the AP process. It was a great opportunity to apply my process knowledge while also learning a lot. The support I’ve received from the team, the opportunities to grow over the years, and the flexibility to take on new challenges have all played a key role in my development.” - D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today As cities move toward climate neutrality, decarbonizing district heating networks is stepping into the spotlight. In Estonia, Utilitas has teamed up with GEA to upgrade its Väo energy complex with four state-of-the-art GEA heat pumps, including the first-ever GEA Grasso L XHP screw compressor. Watch the full video to see how GEA’s ammonia-based heat pump technology is helping Estonia’s capital lead the way tow</t>
-  </si>
-  <si>
-    <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating opportunities for businesses and municipalities. The urgency to act is clear: stakeholders who fail to embrace these legislative drivers risk falling behind in a rapidly evolving energy landscape. 02fKey legislative drivers: - Clean Industrial Deal:02fA comprehensive plan supporting European industry, promoting low-carbon transitions and enhancing conditions for waste heat recovery. -</t>
+    <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking back, it’s been an incredible journey. One of the most memorable moments for me...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today As cities move toward climate neutrality, decarbonizing district heating networks is stepping into the...</t>
+  </si>
+  <si>
+    <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating opportunities for businesses and municipalities. The urgency to act is...</t>
   </si>
   <si>
     <t>Nyt forskningssamarbejde mellem Danfoss, DTU Kemiteknik og Saltpower skal skabe billig og ren energi fra vand gennem naturlig proces.</t>
@@ -979,7 +1024,7 @@
     <t xml:space="preserve"> April 2, 2025 Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement.</t>
   </si>
   <si>
-    <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery value chain.Our cutting-edge solutions enable cost reduction and efficiency improvements across a diverse range of lithium battery applications—including R&amp;D, manufacturing, transportation, and energy storage &amp; E-bus thermal management.Visit our booth at #CIBF2025 to discover how we’re shaping a brighter future for the battery industry with our innovative solutions. Learn more at: https</t>
+    <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery value chain.Our cutting-edge solutions enable cost reduction and efficiency...</t>
   </si>
   <si>
     <t xml:space="preserve"> Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global</t>
@@ -991,142 +1036,142 @@
     <t xml:space="preserve"> Danfoss has introduced a new CO2/water brazed heat exchanger, model H48T-CH, designed for use in CO2 transcritical systems.</t>
   </si>
   <si>
-    <t xml:space="preserve"> We are excited to announce the launch of our latest innovation in the Micro Plate™ technology—the CO /Water brazed heat exchanger (model H48T-CH). Designed</t>
-  </si>
-  <si>
-    <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere to Underwriters Laboratories (UL) compliance guidelines.Copeland is continuously improving compression and condensing unit technologies and is committed to developing safe, A2L-optimized compression, controls and electrical componentry.Read our latest blog that explores electrical component considerations fo</t>
-  </si>
-  <si>
-    <t>The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or other production processes. Copeland’s Vilter VQ95 #industrialheatpump is helping dairy facilities reclaim waste heat and cut fossil fuel use while enhancing performance. One prominent Canadian dairy producer is deploying the energy-efficient, ammonia-based VQ95 for its pasteurization and clean-in-place processes as part of its energy transition.Discover how we’re helping dairy facili</t>
-  </si>
-  <si>
-    <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity, and airflow. Discover techniques like drip down time to prevent moisture spread and snap freezing to enhance system efficiency.  Listen to the full episode now: https://bit.ly/438NJyK#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEfficiency #DanfossClimateSolutions</t>
+    <t>We are excited to announce the launch of our latest innovation in the Micro Plate™ technology—the CO /Water brazed heat exchanger (model H48T-CH). Designed</t>
+  </si>
+  <si>
+    <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere...</t>
+  </si>
+  <si>
+    <t>The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or other production processes. Copeland’s Vilter VQ95 #industrialheatpump is...</t>
+  </si>
+  <si>
+    <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity,...</t>
+  </si>
+  <si>
+    <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
   </si>
   <si>
     <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
   </si>
   <si>
-    <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
-  </si>
-  <si>
-    <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This application demands maximum #reliability even under extreme conditions: a corrosion-resistant Peralluman structure, low-GWP #R1234ze #refrigerant and components optimized for high performance and continuous operation at ambient temperatures of up to 40°C.The core of the system? Our #reciprocating #compresso</t>
-  </si>
-  <si>
-    <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation.Our variable speed solutions for energy storage, including ZEV/YEV compressors, deliver exceptional efficiency and reliability. Designed to support multiple low-GWP refrigerants, they address the global demand for low-carbon technologies.Join us at #CIBF2025 to explore how our advanced technologies are driving progress in energy storage.Learn more at: https://ow.ly/rAS650VQaY2</t>
+    <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This...</t>
+  </si>
+  <si>
+    <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation.Our variable speed solutions for energy storage, including ZEV/YEV compressors, deliver...</t>
   </si>
   <si>
     <t xml:space="preserve"> Copeland has announced the expansion of its partnership with Canadian-based Mysa Smart Thermostats to the U.S. market.</t>
   </si>
   <si>
-    <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portfolio of Sensi smart thermostats, Mysa’s innovative solutions for in-floor, mini-split and baseboard heating systems will offer an unmatched range of sustainable options for homeowners.By leveraging Copeland’s extensive HVACR and electrical distribution network, this partnership expands our ability to deliver innovative, climate-friendly solutions to contractors and their custome</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ST. LOUIS (May 12, 2025) – Copeland, a global provider of sustainable climate solutions, has announced it is expanding its partnership with Mysa in</t>
-  </si>
-  <si>
-    <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are central to our lives, yet 75% of EU buildings are energy inefficient. The revised EPBD targets renovation to improve quality of life and combat climate change.  Join us as we’re kicking off the Retrofit RETHINK Live events season on May 27th, followed by another session on June 12th. Learn how BACS can boost your building’s value, cut energy bills, and improve comfort—all while st</t>
-  </si>
-  <si>
-    <t>Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth T13065 to explore cutting-edge solutions for applications such as energy stations, E-buses, process heat pumps, test chambers, and process chillers.Experience live demonstrations, engage with industry experts, and discover tailored solutions that support a cleaner, more energy-efficient future.Learn more at: https://ow.ly/aBOM50VQ9Yo</t>
+    <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portfolio of Sensi smart thermostats, Mysa’s innovative solutions for...</t>
+  </si>
+  <si>
+    <t>Copeland, a company known for its Sensi smart thermostats, has expanded its partnership with Mysa to bring Mysa’s products to the U.S. market. While Copeland’s Sensi thermostats cater to conventional...</t>
+  </si>
+  <si>
+    <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are central to our lives, yet 75% of EU buildings are energy inefficient....</t>
+  </si>
+  <si>
+    <t>Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth T13065 to explore cutting-edge solutions for applications such as...</t>
   </si>
   <si>
     <t>Copeland’s Enhanced Vapor Injection (EVI) helps deliver superior performance in cold climates while supporting HVAC electrification and decarbonization.Learn more: https://lnkd.in/gW95CwPf</t>
   </si>
   <si>
-    <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refrigeration plant has been successfully powered for nearly ten years by two Arneg #CO2 TK racks equipped with Officine Mario Dorin SpA #CD400 compressors.It’s a testament to the #reliability and #sustainability of our #compressors that it plays a vital role in keeping daily goods fresh for consumers #worldwide. We are proud to contribute to green #refrigeration with natural refrige</t>
-  </si>
-  <si>
-    <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovator, we helped them upgrade their CO2 refrigeration system to an integrated HVAC solution that provides year-round space cooling, heating and refrigeration.Designed with advanced heat reclaim and geothermal capabilities, the full system upgrade leverages Copeland’s end-to-end expertise in compression, controls, drives, and valves—the cutting edge of environmentally friendly innovation.</t>
-  </si>
-  <si>
-    <t>Das 2023 verabschiedete Gebäudeenergiegesetz (GEG) setzt EU-Recht in deutsches Recht um und gilt trotz vieler Kritikpunkte als Meilenstein auf dem Weg zu einem CO 2-neutralen Gebäudebestand. Für Anwender sind die komplexen Anforderungen jedoch oft nur schwer zu erfassen. Im Danfoss InTalk am 3. Juni 2025 erläutern Spezialisten von VDMA, Aedifion und Danfoss die wichtigsten Aspekte des GEG und zeigen, wie sich mit intelligenter Gebäudeautomation alle Vorgaben erfüllen sowie CO 2-Emissionen und Kosten dauerha</t>
-  </si>
-  <si>
-    <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way advanced valve is perfect for various applications, offering compact, leak-tight solutions and easy disassembly for service. Watch our animation to see how it works, then head over to our website to learn even more  https://bit.ly/4fCI75z#Animation #CTR #RegulatingValve #HeatRecovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a speaker at the XXI European Conference on the Latest Technologies in Refrigeration and Air Conditioning. He will speak during Session II – “New Components and Equipment with Alternative Refrigerants Considering Energy Efficiency and Environmental Challenges”, on Thursday, 12 June 2025, from 14:00 to 17:30. Title: Design Analysis and Experimental Testing on a Reciprocating Compressor for Hydr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change?For the first time, #Frascold organizes an exclusive #Technical #Seminar, in collaboration with the Dipartimento di Ingegneria Industriale - DII UNIPD of the University of Padova, to explore one of the industry’s most pressing topics: the evolution of HVAC/R systems with #hydrocarbons, safety, efficiency and new market opportunities. May 23rd, 2025 – Le Village by CA Triveneto, Padua Industry experts, companies and academics will come to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In May 2023, Copeland, a global provider of sustainable climate solutions in the heating, ventilation, air conditioning, and refrigeration (HVAC&amp;R) industry, separated from Emerson and became a standalone business.</t>
-  </si>
-  <si>
-    <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental impact. As demand continues to grow, it’s more important than ever to make this essential sector more sustainable.Michael Toh, President of Asia Pacific at Copeland, outlines how advanced technologies, low-GWP refrigerants, and sustainable innovation are reshaping Asia’s cold chain to reduce emissions and improve efficiency. Discover how Copeland is making an impact in Industrial</t>
-  </si>
-  <si>
-    <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our commitment to keeping every colleague safe, every day. Teams engaged in activities like risk assessments, hazard hunts, and #kaizen events to identify and address potential risks. These efforts not only strengthen our safety culture but also empower employees to take ownership of creating a safer workplace for everyone.Safety is more than a policy; it’s a shared responsibility. S</t>
-  </si>
-  <si>
-    <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series!In an #HVAC market increasingly focused on #sustainability, Frascold expands its reach with ATEX-HT, a new generation of semi-hermetic #compressors designed to operate with #NaturalRefrigerants such as #R290, #butane and #isobutane. Ideal for #HighTemperature #HeatPumps, these compressors can reach up to 13502f°C, delivering top performance in terms of efficiency, reliability and flexibility, while making a real contribution to #decarbo</t>
-  </si>
-  <si>
-    <t>Frascold has expanded its presence in the HVAC field by introducing a new generation of semi-hermetic compressors capable of reaching fluid temperatures up to 135C. Frascold’s ATEX-HT series of compressors, designed for use with hydrocarbons like propane, butane, and isobutane, offer high performance, reliability, and efficiency, making them ideal for reducing emissions in heating and air conditioning systems in various industrial and commercial settings. The company’s commitment to sustainable innovation and deep understanding of industry needs, as highlighted by Livio Calabrese, Sales and Marketing Director at Frascold, underscores their strategic vision to reduce operating costs and actively contribute to customers’ energy transition.</t>
-  </si>
-  <si>
-    <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first compressor prototype in 1995, Turbocor® has led the shift towards oil-free solutions, inspiring teams, customers, and even competitors.  As we celebrate this milestone, we embrace the future of oil-free technology in the industry.  Learn more about our solutions and their impact: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainab</t>
-  </si>
-  <si>
-    <t>Thank you, China!Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important global exhibition in the HVAC-R industry.It was an exceptional opportunity to connect with partners, customers, and professionals from around the world, share our latest solutions, and explore emerging market trends.A heartfelt thank you to everyone who visited our booth—and a special thanks to our Fujian Snowman Group Co., Ltd. colleagues for the outstanding organization and wa</t>
+    <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refrigeration plant has been successfully powered for nearly ten years by...</t>
+  </si>
+  <si>
+    <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovator, we helped them upgrade their CO2 refrigeration system to an integrated...</t>
+  </si>
+  <si>
+    <t>Das 2023 verabschiedete Gebäudeenergiegesetz (GEG) setzt EU-Recht in deutsches Recht um und gilt trotz vieler Kritikpunkte als Meilenstein auf dem Weg zu einem CO 2-neutralen Gebäudebestand. Für...</t>
+  </si>
+  <si>
+    <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way advanced valve is perfect for various applications, offering compact, leak-tight...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a speaker at the XXI European Conference on the Latest Technologies in Refrigeration and...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change?For the first time, #Frascold organizes an exclusive #Technical #Seminar, in collaboration with the Dipartimento di Ingegneria...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In May 2023, Copeland, a global provider of sustainable climate solutions in the heating, ventilation, air conditioning, and refrigeration (HVAC&amp;R) industry, separated from Emerson and became a...</t>
+  </si>
+  <si>
+    <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental impact. As demand continues to grow, it’s more important than ever to make...</t>
+  </si>
+  <si>
+    <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our commitment to keeping every colleague safe, every day. Teams engaged in...</t>
+  </si>
+  <si>
+    <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series!In an #HVAC market increasingly focused on #sustainability, Frascold expands its reach with ATEX-HT, a new generation of...</t>
+  </si>
+  <si>
+    <t>Frascold has expanded its presence in the HVAC field by introducing a new generation of semi-hermetic compressors capable of reaching fluid temperatures up to 135C. Frascold’s ATEX-HT series of...</t>
+  </si>
+  <si>
+    <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first compressor prototype in 1995, Turbocor® has led the shift towards...</t>
+  </si>
+  <si>
+    <t>Thank you, China!Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important global exhibition in the HVAC-R industry.It was an exceptional...</t>
   </si>
   <si>
     <t>ITALY: Frascold has upgraded and extended its range of ATEX HT series semi-hermetic piston compressors for hydrocarbon refrigerants.</t>
   </si>
   <si>
-    <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. Shuster shares his thoughts on the company’s focus on key growth areas — including advancements in heat pumps, commercial and industrial products, innovative controls and groundbreaking R&amp;D efforts. A standout example is the oil-free centrifugal compressor, engineered for efficient and sustainable cooling.Learn more about how Copeland is helping to shape the future of the HVACR in</t>
-  </si>
-  <si>
-    <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Conditioning Contractors of America (ACCA) webinar, “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations.” They will explore the rapid advancements in HVACR and discuss how these innovations are transforming the way residential contractors approach service, supply and system performance.This session will help equip contractors with the knowledge and tools needed</t>
-  </si>
-  <si>
-    <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitioning towards refrigerants with reduced environmental impact, influenced by international agreements like the Montreal Protocol. Discover innovative solutions for natural refrigerants such as CO₂ and ammonia.02f  Stay informed on the latest trends and challenges in refrigerant technology: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustain</t>
+    <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. Shuster shares his thoughts on the company’s focus on key growth areas —...</t>
+  </si>
+  <si>
+    <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Conditioning Contractors of America (ACCA) webinar, “Adapting to Change: Key...</t>
+  </si>
+  <si>
+    <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitioning towards refrigerants with reduced environmental impact, influenced by...</t>
   </si>
   <si>
     <t xml:space="preserve"> IT-Netzwerkservice: Übernahme für kritische Hausnetzwerkinfrastruktur (PresseBox) ( Semikron-Danfoss stand vor der Herausforderung, seine veraltete Netzwerkinfrastruktur zu modernisieren.</t>
   </si>
   <si>
-    <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days!  With over 107 years of expertise and a strong commitment to climate-responsible innovation, we’re dedicated to supporting the #HVACR industry’s transition to #naturalrefrigerants - driving performance, sustainability, and future-ready solutions.ATMOsphere - Adrian Muresan#Dorin #Compressors #Born2Freeze #since1918 #34yearsCO2 #passion#familybusiness #RefrigerationTech #CO2cooling #</t>
-  </si>
-  <si>
-    <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices worldwide. Through GO GreenSense, we’ve been providing proven support for a greener supply chain for nearly a decade. We believe innovation is key to sustainability. GO GreenSense demonstrates how smart solutions can effectively lower carbon footprints without compromise. Learn more about how we are building a future where reducing emissions is embedded in the supply chain: https://</t>
-  </si>
-  <si>
-    <t>It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply to A2Ls, both to ensure safety and alleviate retailers’ concerns. Copeland is committed to supporting specifying engineers and contractors with a range of A2L system options and next-generation equipment strategies.In our latest blog, explore the electrical component considerations for A2L system safety: https://ow.ly/HuLh50VNU6V#CommercialRefrigeration #RefrigerationSafety #A2LSyst</t>
-  </si>
-  <si>
-    <t>– Danfoss Power Solutions today announced the launch of its ET500 lightweight crimper, a portable crimping machine that simplifies hydraulic hose field service and repair. Weighing just 29 pounds, the ET500 sets a new standard for portability and ease of use. The compact device is currently available in the Americas and is ideal for a variety of markets, including material handling, industrial, construction rental equipment, railway, and mining, among others.</t>
-  </si>
-  <si>
-    <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How EPBD &amp; Danfoss Solutions Drive Energy Efficiency. Our speakers, Kaj Väätäjä, Miha Bobic, and Gaia Balzarini will explain why BACS matters and showcase how Danfoss solutions can help you turn regulations into opportunities to save energy while enhancing tenant comfort.  Online Event02f  Event Date: May 27, 202502f  Time: 11:00 CET  Sign-up now: https://bit.ly/44tllty#Danfo</t>
-  </si>
-  <si>
-    <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impact is becoming increasingly evident. The #Frascold ATEX-HT series has been developed to meet this demand, offering energy efficiency, reliability and compatibility with #R290.A recent application example is the new #HeatPump by Tecnofreddo S.r.l., developed with ATEX-HT compressors and capable of reaching temperatures up to 80°C. This #CaseStudy demonstrates how choosing the right</t>
+    <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days!  With over 107 years of expertise and a strong commitment to...</t>
+  </si>
+  <si>
+    <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices worldwide. Through GO GreenSense, we’ve been providing proven support for a...</t>
+  </si>
+  <si>
+    <t>It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply to A2Ls, both to ensure safety and alleviate retailers’ concerns. Copeland...</t>
+  </si>
+  <si>
+    <t>– Danfoss Power Solutions today announced the launch of its ET500 lightweight crimper, a portable crimping machine that simplifies hydraulic hose field service and repair. Weighing just 29 pounds,...</t>
+  </si>
+  <si>
+    <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How EPBD &amp; Danfoss Solutions Drive Energy Efficiency. Our speakers, Kaj...</t>
+  </si>
+  <si>
+    <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impact is becoming increasingly evident. The #Frascold ATEX-HT series has...</t>
   </si>
   <si>
     <t xml:space="preserve"> Frascold has introduced its new ATEX-HT series of semi-hermetic piston compressors, designed to support high-temperature heat pump applications with</t>
   </si>
   <si>
-    <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers tailored for professionals—helping streamline product installation, troubleshooting, and diagnostics, all within the Copeland Mobile app. Whether you’re looking for technical specifications or need help troubleshooting equipment issues, Scout is here to help enhance your workflow with precise, reliable support. See Scout in action: https://ow.ly/SCZG50VMXUb</t>
-  </si>
-  <si>
-    <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies driving a sustainable cold chain—register now: https://lnkd.in/g2vYQQNX Copeland</t>
-  </si>
-  <si>
-    <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration! Last week, the China Refrigeration Exhibition in Shanghai brought together over 1,100 enterprises from more than 30 regions to exchange and discuss the latest news in refrigeration technology and green innovation. GEA participated under the theme "Re:think refrigeration," showcasing our groundbreaking advancements in heating and cooling. Innovative Products Award Our GEA Grasso L XHP compressor was honored as an “Innovative Product of Re</t>
-  </si>
-  <si>
-    <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s China Ref Expo:  NeoCharge - capable of reducing system charge by up to 40%, enabling DX systems to run without superheat  Air Purger for optimal system performance  Transcritical CO₂ solutions for large industrial systems Learn more about these solutions and how they can help you: https://bit.ly/4k3tCc8#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainabi</t>
-  </si>
-  <si>
-    <t>Unter dem Motto "Transformation, Wärmeplanung und Best Practices" werden Danfoss und Branchenexperten in neun Live-online Vorträgen relevante Themen der Planung, Umsetzung und Entwicklung von Fernwärmenetzen sowie deren Dekarbonisierung erörtern. Melden Sie sich noch heute kostenlos an und sichern Sie sich schon jetzt Ihren Platz!</t>
+    <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers tailored for professionals—helping streamline product installation,...</t>
+  </si>
+  <si>
+    <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies driving a sustainable cold chain—register now: https://lnkd.in/g2vYQQNX...</t>
+  </si>
+  <si>
+    <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration! Last week, the China Refrigeration Exhibition in Shanghai brought together over 1,100 enterprises from more than 30 regions to exchange...</t>
+  </si>
+  <si>
+    <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s China Ref Expo:  NeoCharge - capable of reducing system charge by up to 40%,...</t>
+  </si>
+  <si>
+    <t>Unter dem Motto "Transformation, Wärmeplanung und Best Practices" werden Danfoss und Branchenexperten in neun Live-online Vorträgen relevante Themen der Planung, Umsetzung und Entwicklung von...</t>
   </si>
   <si>
     <t xml:space="preserve"> Danfoss México announced that it has been awarded the distinction of the Empresa Socialmente Responsable (ESR), which means socially responsible company, for the 15th consecutive year.</t>
   </si>
   <si>
-    <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refrigeration ExhibitionFrom April 27 to 29, the 36th China Refrigeration Exhibition was grandly held at the Shanghai New International Expo Center. As the world’s leading manufacturer of cold and hot equipment and system integration service provider, Snowman Group took " Smart Leadership in Low-Carbon, Harmonizing Cool and Warm " as the theme of this exhibition, and brought its full</t>
+    <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refrigeration ExhibitionFrom April 27 to 29, the 36th China Refrigeration Ex...</t>
   </si>
   <si>
     <t xml:space="preserve"> On March 12, Copeland, a global leader in sustainable climate solutions, announced its partnership with Euroklimat to deliver an ultra-low-temperature</t>
@@ -1135,10 +1180,10 @@
     <t xml:space="preserve"> Frascold has designed a new generation of semi-hermetic compressors, set to launch in 2025, specifically developed to go beyond current market limits and meet increasingly complex requirements.</t>
   </si>
   <si>
-    <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air cooling is prevalent in China, the shift towards direct liquid cooling is emerging as a significant trend, expected to grow substantially over the next three years.  Discover how we’re supporting this dynamic market and advancing cooling solutions: https://bit.ly/3RH1FuQ#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainability</t>
-  </si>
-  <si>
-    <t>"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, president, Europe for Copeland. “By expanding our manufacturing capabilities for heating solutions here in Northern Ireland, Copeland is proud to play a key role in helping to reduce reliance on fossil fuels and supporting the energy transition to more sustainable, electricity-powered heating."</t>
+    <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air cooling is prevalent in China, the shift towards direct liquid cooling...</t>
+  </si>
+  <si>
+    <t>"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, president, Europe for Copeland. “By expanding our...</t>
   </si>
   <si>
     <t xml:space="preserve"> The UK government has announced a £4.6 million investment in Copeland to expand domestic production of key heat pump components, supporting local</t>
@@ -1147,46 +1192,46 @@
     <t>The HVACR landscape is evolving rapidly. Join Copeland and ACCA on May 14 for a free webinar featuring expert insights from Jennifer Butsch and Brad Gross.</t>
   </si>
   <si>
-    <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wisconsin! This state-of-the-art transformation is more than just a face-lift; it’s a reflection of our commitment to innovation, sustainability, and people.Here’s what’s new: Expanded Training Facilities: Now 16,000 sq. ft. of space designed to equip our customers with expertise in low-GWP refrigerants and energy-efficient solutions. Enhanced Workspace and Amenities: From upgraded col</t>
-  </si>
-  <si>
-    <t>As CFO, Christensen will be responsible for driving financial strategy and ensuring solid performance during strong growth and challenging market conditions. Christensen will lead the Finance and Functions team, which is responsible for ensuring financial compliance, delivering robust financial performance, and supporting strategic decision-making across Danfoss Power Solutions. He will also serve as the Power Solutions representative on the Danfoss Finance Board.</t>
+    <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wisconsin! This state-of-the-art transformation is more than just a face-lift; it’s...</t>
+  </si>
+  <si>
+    <t>As CFO, Christensen will be responsible for driving financial strategy and ensuring solid performance during strong growth and challenging market conditions. Christensen will lead the Finance and...</t>
   </si>
   <si>
     <t>No summary</t>
   </si>
   <si>
-    <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how excess heat recovery and reuse can make a significant impact on energy efficiency and cost savings  02fThe Impact - Save €67.4 billion annually across the EU by 2050. - Access 2,860 TWh/y of waste heat, nearly meeting the EU’s heating and hot water demand. - Transform waste heat into a valuable resource. 02fOur Vision We envision a future where waste heat recovery and integrate</t>
-  </si>
-  <si>
-    <t>Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind the creation of the snowman is the brilliance created by ingenuity. This Labor Day, cheers for wisdom! Cheers for the hard work! cheers for manufacturing.#SnowmanGroup #laborday</t>
+    <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how excess heat recovery and reuse can make a significant impact on energy...</t>
+  </si>
+  <si>
+    <t>Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind the creation of the snowman is the brilliance created by ingenuity....</t>
   </si>
   <si>
     <t>IRELAND: Copeland’s has received over £4.6m of UK government funding to boost heat pump compressor production at its Cookstown factory in County Tyrone.</t>
   </si>
   <si>
-    <t>At today’s Annual General Meeting, the shareholders of GEA Group AG approved all resolutions proposed by the Supervisory Board and Executive Board with a large majority. Among other outcomes, the Annual General Meeting confirmed Dr. Jürgen Fleischer, Prof. Dr. Annette G. Köhler and Ms. Holly Lei as members of the Supervisory Board. All three were elected for a further four-year term.</t>
-  </si>
-  <si>
-    <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episode as we go into the complexities of refrigeration systems. Learn how controlling temperature, humidity, and airflow can protect your products and enhance efficiency. Understand the importance of strategic product placement within coolers and freezers for optimal airflow and heat removal.  Listen now: https://bit.ly/4cV25r6#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (PresseBox) ( Düsseldorf Die Aktionärinnen und Aktionäre der GEA Group AG haben auf der heutigen ordentlichen Hauptversammlung allen Vorschlägen von Aufsichtsrat und Vorstand mit großer Mehrheit zugestimmt.</t>
-  </si>
-  <si>
-    <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’ve had the chance to connect with so many passionate professionals, exchange ideas and dive deep into the future of #refrigeration and #HVAC.We truly appreciated every visit, every conversation and every shared insight. Moments like these are what make trade shows such an important space for growth, #innovation and collaboration.A heartfelt thank you to everyone who took the time to stop by</t>
-  </si>
-  <si>
-    <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo to explore the future of high-performance air conditioning and refrigeration. During the event, attendees experienced firsthand how Copeland’s advanced variable speed technologies are driving energy efficiency, enhancing human comfort, and ensuring food safety across a range of applications.Thank you to everyone who joined us in celebrating this milestone!</t>
-  </si>
-  <si>
-    <t>The SRS-RRE-14M Variable Vi Semi-Hermetic Screw Compressor has been awarded the Gold Prize by the Expert Committee of the China Refrigeration Expo in the category of "Industrial and Commercial Equipment and Related Components."</t>
+    <t>At today’s Annual General Meeting, the shareholders of GEA Group AG approved all resolutions proposed by the Supervisory Board and Executive Board with a large majority. Among other outcomes, the...</t>
+  </si>
+  <si>
+    <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episode as we go into the complexities of refrigeration systems. Learn how controlling...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (PresseBox) ( Düsseldorf Die Aktionärinnen und Aktionäre der GEA Group AG haben auf der heutigen ordentlichen Hauptversammlung allen Vorschlägen von Aufsichtsrat und Vorstand mit großer Mehrheit...</t>
+  </si>
+  <si>
+    <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’ve had the chance to connect with so many passionate professionals, exchange ideas and...</t>
+  </si>
+  <si>
+    <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo to explore the future of high-performance air conditioning and...</t>
+  </si>
+  <si>
+    <t>The SRS-RRE-14M Variable Vi Semi-Hermetic Screw Compressor has been awarded the Gold Prize by the Expert Committee of the China Refrigeration Expo in the category of "Industrial and Commercial...</t>
   </si>
   <si>
     <t xml:space="preserve"> Copeland has completed a $14 million renovation of its Vilter industrial compression facility in Cudahy, Wisconsin, enhancing its manufacturing, training, and collaboration capabilities.</t>
   </si>
   <si>
-    <t>Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced technologies driving the global energy transition, highlighting solutions for low-GWP and natural refrigerants, high-efficiency heating systems, and a sustainable cold chain.It was a pleasure connecting with industry leaders and sharing our vision for a more sustainable future. We’re excited to continue this conversation and explore opportunities together.</t>
+    <t>Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced technologies driving the global energy transition, highlighting...</t>
   </si>
   <si>
     <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Chemical Application Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
@@ -1195,94 +1240,94 @@
     <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Heat Pump Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
   </si>
   <si>
-    <t>2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing you again! #ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
+    <t>2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing you again!...</t>
   </si>
   <si>
     <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Ammonia Low-charge Water-Chiller Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
   </si>
   <si>
-    <t>GEA hat eine neue Hochtemperatur-Wärmepumpe an den belgischen Zuckerhersteller Tiense Suiker, ein Unternehmen der deutschen Südzucker Group, geliefert und installiert. Die offizielle Eröffnung der Anlage fand am 19. Februar 2025 in Anwesenheit des Flämischen Premierministers Matthias Diependaele und weiterer hochrangiger Gäste der beteiligten Unternehmen und der beteiligten Verbände und Institute statt. Die neue GEA Technologie ermöglicht es, industrielle Abwärme auf Temperaturen von 135 bis 160 °C zu bring</t>
-  </si>
-  <si>
-    <t>Copeland won the Gold Award for Innovative Products at the 2025 China Refrigeration Expo for their oil-free centrifugal compressor with Aero-Lift™ technology. The compressor was recognized for its high-lift performance, rapid startup, and reliability in challenging conditions, outshining 67 competitors across 9 categories.</t>
-  </si>
-  <si>
-    <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup #ScrewCompressor#REFRIGERATION#Snowman#SnowmanGroup #CRH2025</t>
-  </si>
-  <si>
-    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#CRH2025</t>
-  </si>
-  <si>
-    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
-  </si>
-  <si>
-    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #Snowman#SnowmanGroup #CRH2025</t>
-  </si>
-  <si>
-    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
-  </si>
-  <si>
-    <t>General Yosr Allouche delivered a keynote presentation at Danfoss’ week dedicated to sustainable heating and cooling, emphasizing the importance of sustainable refrigeration as an opportunity for society. The event brought together experts from around the world to collaborate on decarbonizing the cold chain, buildings, and industry. Danfoss President Kristian Strand stressed the significance of sustainable heating and cooling technologies in building a resilient society, improving public health, supporting economic development, and enhancing quality of life.</t>
+    <t>GEA hat eine neue Hochtemperatur-Wärmepumpe an den belgischen Zuckerhersteller Tiense Suiker, ein Unternehmen der deutschen Südzucker Group, geliefert und installiert. Die offizielle Eröffnung der...</t>
+  </si>
+  <si>
+    <t>Copeland won the Gold Award for Innovative Products at the 2025 China Refrigeration Expo for their oil-free centrifugal compressor with Aero-Lift™ technology. The compressor was recognized for its...</t>
+  </si>
+  <si>
+    <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup...</t>
+  </si>
+  <si>
+    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #ScrewCompressor#REFRIGERATION #SRMTEC...</t>
+  </si>
+  <si>
+    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC...</t>
+  </si>
+  <si>
+    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service...</t>
+  </si>
+  <si>
+    <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC...</t>
+  </si>
+  <si>
+    <t>General Yosr Allouche delivered a keynote presentation at Danfoss’ week dedicated to sustainable heating and cooling, emphasizing the importance of sustainable refrigeration as an opportunity for...</t>
   </si>
   <si>
     <t>SMA Solar Technology AG, setzt das Leistungsmodul von Semikron Danfoss mit den neuesten 2kV SiC MOSFETs von ROHM in seiner neuen Plattform-Lösung Sunny Central FLEX ein.</t>
   </si>
   <si>
-    <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Your interest in our solutions has been invaluable. For those who couldn’t attend, there’s still an opportunity to learn about: 705 Danfoss Turbocor® compressors and oil-free applications 705 Commercial air conditioning and heat pump heating 705 Energy storage and CO₂ solutions  Stay updated. New content will soon be available on our landing page. We invite you to explore and keep</t>
-  </si>
-  <si>
-    <t>That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai!We are deeply grateful to all the customers, partners, and friends, new and longtime who visited our booth. Your energy, ideas, and passion for innovation made this event truly special and thank you for your continued trust in our #compressors solutions.This year’s edition was even more meaningful as we also celebrated #10years of #DorinJiaxing, #107years of #Dorin, and proudly unveiled our newest compre</t>
-  </si>
-  <si>
-    <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition through servitisation. This innovative approach removes common barriers to adopting clean and energy-efficient technologies.Higher upfront costs and perceived performance risks often slow market adoption. Servitisation - whether pay-per-use or pay-per-outcome - offers a smarter way forward, enabling lower life cycle costs and greater end-user accessibility.At Danfoss Climate Solutions, we</t>
+    <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Your interest in our solutions has been invaluable. For those who...</t>
+  </si>
+  <si>
+    <t>That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai!We are deeply grateful to all the customers, partners, and friends, new and longtime who visited...</t>
+  </si>
+  <si>
+    <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition through servitisation. This innovative approach removes common barriers to...</t>
   </si>
   <si>
     <t>Copeland has completed renovations at its Vilter facility and will hold a grand opening event on May 1, 2025.</t>
   </si>
   <si>
-    <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01 to see how we’re driving decarbonization and energy efficiency across HVACR.Explore our latest innovations in sustainable cooling, heating, and cold chain solutions that are all designed to support a greener future. Don’t miss your chance to connect with our team and learn how Copeland is leading the way toward low-GWP and high-performance technologies.Learn more at: https://ow.ly/</t>
-  </si>
-  <si>
-    <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused on accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and amazing people. From inspiring conversations at our #booths E2D31 - E4F31 to the many visitors interested in our cutting-edge technologies, it’s been a fantastic start to the show.A big thank you to everyone who joined us. Your presence made these first days truly memorable!Swipe through the highlights of an incredible start and if you’re at the fair, don’t forget to stop by </t>
-  </si>
-  <si>
-    <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the event, Copeland showcased its advanced heat pump technology, demonstrating how our heat pumps are setting new standards for energy efficient hot water systems. Thank you to everyone who visited our booth and engaged with our team. We look forward to continuing the conversation and exploring new opportunities to support India’s evolving infrastructure with innovative, energy efficient</t>
-  </si>
-  <si>
-    <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the industryOn April 27, the 36th International Refrigeration Exhibition opened efficiently as scheduled in Shanghai. Snowman Group made a grand appearance with a variety of energy-saving and emission-reducing devices and green solutions.At the E1F15 booth, Snowman Group set up multiple special exhibition areas to fully display the industry’s cutting-edge technologies, helping global cus</t>
+    <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01 to see how we’re driving decarbonization and energy efficiency across...</t>
+  </si>
+  <si>
+    <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused on accelerating decarbonization in key areas: 705 Buildings – May 6 at...</t>
+  </si>
+  <si>
+    <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm:...</t>
+  </si>
+  <si>
+    <t>What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and amazing people. From inspiring conversations at our #booths E2D31 -...</t>
+  </si>
+  <si>
+    <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the event, Copeland showcased its advanced heat pump technology, demonstrating...</t>
+  </si>
+  <si>
+    <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the industryOn April 27, the 36th International Refrigeration Exhibition opened...</t>
   </si>
   <si>
     <t>USA: Copeland has announced the official opening of its new Vilter industrial refrigeration compressor facility in Cudahy, Wisconsin, following a major $14m renovation and remodelling.</t>
   </si>
   <si>
-    <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards against liquid flow to compressors. See how it manages refrigerant flow in our animation.  Explore our commercial refrigeration solutions here: https://bit.ly/3WEwHVX#PumpDown #CommercialRefrigeration #EnergyEfficiency #ProductAnimation</t>
-  </si>
-  <si>
-    <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOGood News!  Four Snowman Compressors Win the Innovation Award at the China Refrigeration Expo!Just ahead of the official opening of the 2025 China Refrigeration Expo, Snowman Group’s compressor series has been honored with the  Innovation Product Award, presented by the organizers of the Expo — a recognition of our technological excellence and commitment to innovation.Join us at the show and experience Snowman’s latest breakthroughs! Time: April</t>
+    <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards against liquid flow to compressors. See how it manages refrigerant flow in our...</t>
+  </si>
+  <si>
+    <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOGood News!  Four Snowman Compressors Win the Innovation Award at the China Refrigeration Expo!Just ahead of the official opening of the 2025...</t>
   </si>
   <si>
     <t xml:space="preserve"> Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
   </si>
   <si>
-    <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery Tool!  Developed with the expertise of our sector Coupling team and simulation specialists, this tool helps you easily evaluate heat recovery opportunities. Whether you’re reclaiming waste heat to replace fossil fuels or considering selling it to an external utility, this tool is here to guide you. What can you expect from the Heat Recovery Tool? 705 Insights into energy savings, inve</t>
-  </si>
-  <si>
-    <t>Kristian Strand emphasizes that the company plays a crucial role in connecting components and optimizing systems, acting as an "early intervention consultant." He clarifies that while the company does not aim to replace important advisory elements upstream, its diverse expertise allows it to excel in areas such as understanding how chillers work to develop the best compressors, valves, heat exchangers, and control algorithms for chillers. This comprehensive approach is essential for driving decarbonization efforts forward and avoiding being solely a component supplier, enabling the company to bring more innovative solutions to the market. In summary, Kristian Strand highlights the importance of the company’s role in leveraging its knowledge of various components to create optimized systems and drive decarbonization efforts. By focusing on developing innovative solutions rather than just supplying components, the company aims to play a significant part in advancing sustainable practices in the industry.</t>
-  </si>
-  <si>
-    <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
-  </si>
-  <si>
-    <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSnowman’s technical engineers will participate in five official forums, sparking ideas with industry peers in high-level dialogues. Time: April 27-29, 2025   Exhibition location: Shanghai New International Expo Center  Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
-  </si>
-  <si>
-    <t>Freedom and Innovation Made in ItalyOn April the 25th we celebrate freedom. The one we won in the past and the one we express today with our ability to innovate, design and produce in Italy.Our compressors are born here: from technical expertise, from a passion for a job well done, and from a vision that always looks ahead.Made in Italy, with pride.#SRMTec#madeinitaly</t>
+    <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery Tool!  Developed with the expertise of our sector Coupling team and simulation...</t>
+  </si>
+  <si>
+    <t>Kristian Strand emphasizes that the company plays a crucial role in connecting components and optimizing systems, acting as an "early intervention consultant." He clarifies that while the company...</t>
+  </si>
+  <si>
+    <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29...</t>
+  </si>
+  <si>
+    <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSnowman’s technical engineers will participate in five official forums, sparking ideas with industry peers in high-level dialogues. Time: April...</t>
+  </si>
+  <si>
+    <t>Freedom and Innovation Made in ItalyOn April the 25th we celebrate freedom. The one we won in the past and the one we express today with our ability to innovate, design and produce in Italy.Our...</t>
   </si>
   <si>
     <t xml:space="preserve"> Multi-residential Danfoss House serves as both test center and employee housing.</t>
@@ -1294,109 +1339,106 @@
     <t>Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
   </si>
   <si>
-    <t xml:space="preserve">As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental impact. Our advanced cold chain solutions leverage CO₂ refrigeration technology to enhance efficiency and sustainability, ensuring a safer and more resilient food supply.Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01, where we’ll showcase next generation refrigeration innovations that support clean energy adoption, sustainable cooling advancements, and </t>
-  </si>
-  <si>
-    <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently  With global temperatures rising and living standards improving, the demand for cooling is set to increase dramatically. Our latest whitepaper explores how district cooling offers a sustainable solution for dense urban areas, adapting to local conditions and providing numerous benefits to communities.   Key insights include: - The importance of hydronic building installations for enabling energy efficient cooling supply - How district co</t>
-  </si>
-  <si>
-    <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSmart “Fusion” Exploration – Green Tech Check-in JourneyCheck in at Booth E1F15 and explore Snowman’s Five Green Tech Highlights to unlock our low-carbon code and win exciting gifts  ! Time: April 27-29, 2025  Exhibition location: Shanghai New International Expo Center Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
-  </si>
-  <si>
-    <t>Italian chiller and heat pump manufacturer Tecnofreddo has introduced a new propane (R290) air-to-water high-temperature heat pump as part of their "Danae" series. This new model is capable of reaching an outlet temperature of 80C (176F), a significant improvement from the previous maximum of 45C (113F). The collaboration with Frascold has allowed Tecnofreddo to expand its offerings to include propane heat pumps for industrial applications, in addition to commercial comfort heating and cooling. The Danae high-temperature heat pump utilizes Frascold’s ATEX-HT semi-hermetic reciprocating compressor, featuring a line start permanent magnet (LSPM) electric motor that enhances efficiency by 6% compared to a standard asynchronous motor.</t>
-  </si>
-  <si>
-    <t>Expo 2025, April 28 to May 1, in Anaheim, Calif. At booth 6341, Danfoss will highlight products from its Power Solutions and Power Electronics and Drives businesses, showcasing how the company helps original equipment manufacturers and vehicle fleet owners decarbonize their vehicles while exceeding performance expectations.</t>
-  </si>
-  <si>
-    <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland’s Jennifer Butsch, director, regulatory affairs, and Brad Gross, product marketing manager, in partnership with Air Conditioning Contractors of America (ACCA).Gain expert insights on compressor selection, A2L refrigerants, LXE technology, Copeland Mobile, and upcoming CEE Tier shifts to navigate industry changes with confidence and efficiency.Register today: https://ow.ly/7kp850VBSnX</t>
-  </si>
-  <si>
-    <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings still energy inefficient, the EPBD sets ambitious targets for renovation. Discover how Building Automation and Control Systems (BACS) can optimize energy use, improve EPC ratings, and enhance tenant comfort. Join us on Retrofit RETHINK Live event to learn how you can turn regulations into an opportunity to save energy, lower your costs and combat climate change.  Online event02f  E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in industrial heating. Our advanced high-temperature process heating solutions are designed to enhance energy utilization, improve system performance, and reduce costs, all while supporting a more sustainable future.From high condensing temperature technology to high-temperature-resistant control solutions, we’re here to help you optimize your operations. Stop by to connect with us, gain </t>
-  </si>
-  <si>
-    <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations.With over 15 years of leadership experience, Mary will focus on building our Investor Relations capabilities, enhancing financial communications and driving engagement with financial market participants. Her expertise aligns perfectly with Copeland’s commitment to operational excellence and innovation.Please join us in welcoming Mary to the team.#Leadership #Innovation #Finance #Copeland</t>
+    <t>As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental impact. Our advanced cold chain solutions leverage CO₂ refrigeration...</t>
+  </si>
+  <si>
+    <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently  With global temperatures rising and living standards improving, the demand for cooling is set to increase dramatically. Our latest...</t>
+  </si>
+  <si>
+    <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSmart “Fusion” Exploration – Green Tech Check-in JourneyCheck in at Booth E1F15 and explore Snowman’s Five Green Tech Highlights to unlock our...</t>
+  </si>
+  <si>
+    <t>Italian chiller and heat pump manufacturer Tecnofreddo has introduced a new propane (R290) air-to-water high-temperature heat pump as part of their "Danae" series. This new model is capable of...</t>
+  </si>
+  <si>
+    <t>Expo 2025, April 28 to May 1, in Anaheim, Calif. At booth 6341, Danfoss will highlight products from its Power Solutions and Power Electronics and Drives businesses, showcasing how the company helps...</t>
+  </si>
+  <si>
+    <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland’s Jennifer Butsch, director, regulatory affairs, and Brad Gross, product marketing...</t>
+  </si>
+  <si>
+    <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings still energy inefficient, the EPBD sets ambitious targets for renovation....</t>
+  </si>
+  <si>
+    <t>Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in industrial heating. Our advanced high-temperature process heating solutions...</t>
+  </si>
+  <si>
+    <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations.With over 15 years of leadership experience, Mary will focus on building our Investor Relations capabilities,...</t>
   </si>
   <si>
     <t>The new Danfoss House is the world’s only multi-residential building of bricks and concrete to achieve the highest certification under the globally recognized DGNB-standard.</t>
   </si>
   <si>
-    <t>A power purchase agreement covering all Danfoss’ US facilities with renewable energy from a Texas solar farm is now effective. Danfoss will buy 185,000 MWh annually as part of the agreement which runs through 2032.</t>
-  </si>
-  <si>
-    <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s advanced heating and cooling solutions deliver reliability, flexibility, and sustainability, ensuring optimal comfort while reducing energy consumption. With independent temperature control, high-performance components, and seamless system integration, our solutions are designed to enhance efficiency without compromising comfort.Join us at China Refrigeration Expo 2025, April 27-29, at Bo</t>
-  </si>
-  <si>
-    <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading event in Saudi Arabia for food processing and production technologies. Specialized in #refrigeration for #food and #industrial applications, #FTC integrates Frascold #compressors, including #reciprocating and #FVR models, into high-performance systems designed for #reliability and #efficiency.We’re proud to see our technologies on display in such a strategic context and thank FTC f</t>
-  </si>
-  <si>
-    <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the EarthApril 22, 2025 is the 55th World Earth Day, and this year’s theme is "Our Energy, Our Planet". Snowman semi-hermetic screw compressor is compatible with various refrigerants such as ammonia refrigerants, featuring high efficiency and energy saving, effective carbon emission reduction, thus alleviating the burden on the Earth. #SRM #SnowmanGroup #SustainableDevelopment#GreenManufacturing #SustainableIndustry #Comp</t>
-  </si>
-  <si>
-    <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Den</t>
-  </si>
-  <si>
-    <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Denv</t>
-  </si>
-  <si>
-    <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainability. Our advanced technologies enhance operational safety, optimize energy use, and support a greener future, ensuring data centers run smarter and more reliably.Join us at China Refrigeration Expo 2025, April 27-29, at Booth E3F01 to discover how Copeland is shaping the future of data center sustainability. Learn more at: https://ow.ly/AcAu50Vtqtm</t>
-  </si>
-  <si>
-    <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable ProductionFrom April 16 to 18, the 24th China International Dye Industry, Organic Pigments and Textile Chemicals Exhibition successfully concluded at the Shanghai World Expo Exhibition &amp; Convention Center. Snowman Group showcased its SRM open-type screw brine refrigeration unit model and its 20t/d energy-efficient tube ice machine at the event.This exhibition deepened the technical e</t>
-  </si>
-  <si>
-    <t>728 Happy Easter from Officine Mario Dorin SpA!As spring awakens the world with renewal and hope, we pause to thank our incredible customers, partners, and friends across the globe for being part of our journey. May this Easter season bring you peace, joy, and inspiration - just as innovation and sustainability continue to guide everything we do at Dorin. Buona Pasqua!  Happy Easter!  Frohe Ostern!  Joyeuses Pâques!  ¡Feliz Pascua!#HappyEaster #Dorin #Compressors #Born2Freeze #since1918 #passi</t>
-  </si>
-  <si>
-    <t>The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take you through how the trusted IPS 8 platform now brings all its benefits to ammonia-based systems. Whether you’re designing, upgrading, or servicing an ammonia industrial refrigeration system, the IPS 8 gives you: 705 Demand-based purging that adapts to system conditions 705 Standalone design – no oil circuit, no integration complexity 705 Built-in Modbus connectivity for monitoring and c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Save the Date – China Refrigeration 2025 #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #Shanghai, from April 27–29! Find us at #Booth E2D31-E4F31Explore our innovative #compressor solutions for: Commercial &amp; Industrial Refrigeration Cold Chain Heat Pumps &amp; HVAC Cryogenic ApplicationsLet’s meet in Shanghai and shape the future of #refrigeration together!</t>
-  </si>
-  <si>
-    <t>Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutionsFrom April 13 to 15, the 2025 Saudi Food Manufacturing Exhibition was successfully held in Riyadh. Snowman Group presented refrigeration equipment and system solutions based on natural working fluids, attracting the attention and inquiries of numerous industry clients.Against the backdrop of the global industry accelerating its transition towards low-carbonization, the Saudi market also has higher r</t>
-  </si>
-  <si>
-    <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression technology is helping renewable natural gas #RNG leaders maximize uptime and reliability. Our proven compression solutions are engineered for demanding RNG applications — delivering the performance, efficiency and low maintenance needed to keep systems running, day in and day out.</t>
-  </si>
-  <si>
-    <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choices for your business and the planet, achieving intelligent and cost-effective decarbonization by reducing, reusing, and re-sourcing energy consumption. Together, we make decarbonization count.Unlock insights and explore solutions:705 RETHINK Live: Accelerate decarbonization in buildings - May 06, 2025, 1:00 PM CEST705 RETHINK Live: Accelerate decarbonization in the cold chain - May 07, 2</t>
-  </si>
-  <si>
-    <t>Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential and commercial hot water systems. Our heat pumps are the ideal solution for India’s evolving infrastructure needs.Visit us at Booth A-12 from April 24-26 at Bharat Mandapam, New Delhi, to experience how Copeland’s heat pump technology is a game-changer for commercial spaces, hotels, and beyond.Register now: https://ow.ly/RR4A50Vzh3e</t>
-  </si>
-  <si>
-    <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering with their trusted, local contractor, Frigotehnica, and Danfoss, using Danfoss ICF valve stations for a retrofit that delivered efficiency, safety, and sustainability—all with minimal downtime. The challenge was clear: the brewery needed to replace their old system with modern, energy-efficient technology, but stopping production wasn’t an option. The solution? Danfoss ICF val</t>
-  </si>
-  <si>
-    <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are pleased to have taken part in this edition thanks to our collaboration with #ClimatecBoulanaache.Within their stand, a #CondensingUnit and one of our #Frascold #compressors were proudly displayed, solutions designed to ensure efficiency and reliability in #FoodIndustry #refrigeration processes.A heartfelt thank you to Climatec Boulanaache for the trust and partnership: bringing Frasco</t>
-  </si>
-  <si>
-    <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm!From April 27 to 29, Snowman Group will proudly showcase our flagship products at the China Refrigeration Expo.Join us at Booth F15, Hall E1 – we look forward to seeing you there! Time: April 27-29, 2025 Exhibition location: Shanghai New International Expo Center#ChinaRefrigerationExpo #RefrigerationTechnology #LowCarbonSolutions #HVACR #SnowmanGroup #SustainableInnovation #SRM #SRMTech</t>
-  </si>
-  <si>
-    <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading search engine company’s new office in Bengaluru. Copeland’s advanced heat pumps with solar heaters assist in meeting the daily requirement of sustainably managing 50,000 liters a day.This solution ensures reliable hot water supply while delivering energy efficiency. Copeland offers GreenPro Certified solutions that enhance energy efficiency, performance reliability, while reduci</t>
-  </si>
-  <si>
-    <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that enable the industry to optimize energy consumption, reduce food waste, and lower emissions across food retail.</t>
-  </si>
-  <si>
-    <t>- 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre. Danfoss, a global leader in industrial and commercial refrigeration, will be presenting the latest product technologies and solutions under the theme of “Transition forward” at the exhibition stand E2D01. The exhibition will showcase the full range of products from the two business areas of air conditioning heat pumps and refrigeration, as well as six hot spot applications. In addition, this</t>
-  </si>
-  <si>
-    <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in the U.S., China and EU. With our increasing reliance on cloud computing and the projected growth of AI and machine learning, data center electricity usage is forecast to more than double by 2030. The need for sustainable data centers, with energy-efficient cooling technologies, is critical. Where does the industry stand right now and what is the outlook for the next five year</t>
-  </si>
-  <si>
-    <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arrives on April 27!At this exhibition, Snowman Group will make a splendid appearance with its full range of brands and multiple series of star products. There will be expert forum activities on the exhibition site, and wonderful gifts will be dropped as surprises. We are looking forward to your presence at Booth F15, Hall E1, and we hope to explore the new driving forces for the de</t>
-  </si>
-  <si>
-    <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natural #refrigerants, designed to deliver high performance even in extreme environmental conditions.Using #R290 for the low stage and #R600a for the high stage, the unit ensures reliable operation from outdoor temperatures as low as -20°C up to +90°C in flow temperature. We are proud to contribute to solutions that combine efficiency, flexibility and environmental responsibility.</t>
+    <t>A power purchase agreement covering all Danfoss’ US facilities with renewable energy from a Texas solar farm is now effective. Danfoss will buy 185,000 MWh annually as part of the agreement which...</t>
+  </si>
+  <si>
+    <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s advanced heating and cooling solutions deliver reliability, flexibility, and...</t>
+  </si>
+  <si>
+    <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading event in Saudi Arabia for food processing and production...</t>
+  </si>
+  <si>
+    <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the EarthApril 22, 2025 is the 55th World Earth Day, and this year’s theme is "Our Energy, Our Planet". Snowman...</t>
+  </si>
+  <si>
+    <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for...</t>
+  </si>
+  <si>
+    <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainability. Our advanced technologies enhance operational safety, optimize...</t>
+  </si>
+  <si>
+    <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable ProductionFrom April 16 to 18, the 24th China International Dye Industry,...</t>
+  </si>
+  <si>
+    <t>728 Happy Easter from Officine Mario Dorin SpA!As spring awakens the world with renewal and hope, we pause to thank our incredible customers, partners, and friends across the globe for being part of...</t>
+  </si>
+  <si>
+    <t>The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take you through how the trusted IPS 8 platform now brings all its benefits to...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Save the Date – China Refrigeration 2025 #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #Shanghai, from April 27–29! Find us at #Booth E2D31-E4F31Explore our innovative #compressor...</t>
+  </si>
+  <si>
+    <t>Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutionsFrom April 13 to 15, the 2025 Saudi Food Manufacturing Exhibition was successfully held in...</t>
+  </si>
+  <si>
+    <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression technology is helping renewable natural gas #RNG leaders maximize uptime...</t>
+  </si>
+  <si>
+    <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choices for your business and the planet, achieving intelligent and cost-effective...</t>
+  </si>
+  <si>
+    <t>Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential and commercial hot water systems. Our heat pumps are the ideal solution...</t>
+  </si>
+  <si>
+    <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering with their trusted, local contractor, Frigotehnica, and Danfoss, using...</t>
+  </si>
+  <si>
+    <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are pleased to have taken part in this edition thanks to our collaboration with...</t>
+  </si>
+  <si>
+    <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm!From April 27 to 29, Snowman Group will proudly showcase our flagship products at the China Refrigeration Expo.Join us at Booth F15, Hall E1...</t>
+  </si>
+  <si>
+    <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading search engine company’s new office in Bengaluru. Copeland’s advanced...</t>
+  </si>
+  <si>
+    <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that...</t>
+  </si>
+  <si>
+    <t>- 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre. Danfoss, a global leader in industrial and commercial refrigeration, will be...</t>
+  </si>
+  <si>
+    <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in the U.S., China and EU. With our increasing reliance on cloud...</t>
+  </si>
+  <si>
+    <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arrives on April 27!At this exhibition, Snowman Group will make a splendid...</t>
+  </si>
+  <si>
+    <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natural #refrigerants, designed to deliver high performance even in extreme...</t>
   </si>
   <si>
     <t xml:space="preserve"> Tecnofreddo’s new DANAE heat pump reaches 80°C using Frascold ATEX-HT compressors and R290 refrigerant.</t>
@@ -1405,13 +1447,13 @@
     <t xml:space="preserve"> Frascold and Tecnofreddo join forces for eco-friendly heating solutions 11 April 2025</t>
   </si>
   <si>
-    <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November!An unmissable event for the refrigeration world, where we will be presenting our latest solutions and technologies.Come and visit us!#SRMTec #REFRIGERA2025 #Refrigeration #innovation #BolognaFiere</t>
-  </si>
-  <si>
-    <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #heating solutions. A key factor in their development is the choice of compression technology.#Frascold ATEX-HT #compressors, designed to operate with #R290, can reach temperatures of up to 80°C, ensuring high efficiency and reliability even under the most demanding conditions. This technology has been adopted in the new Tecnofreddo S.r.l. #HeatPump, presented at Chillventa 2024, a c</t>
-  </si>
-  <si>
-    <t>Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge of manually balancing heating systems—adjusting valves, wasting time, and struggling to get it just right. Find out how dynamic balancing solutions can eliminate these inefficiencies, improve comfort, and reduce energy costs in multi-family buildings.  Listen to the full episode now: https://bit.ly/4208oG3#TakingTheTemperatureOnHVACR #HydronicBalancing #MultiFamilyBuildings #</t>
+    <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November!An unmissable event for the refrigeration world, where we will be presenting our latest...</t>
+  </si>
+  <si>
+    <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #heating solutions. A key factor in their development is the choice of...</t>
+  </si>
+  <si>
+    <t>Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge of manually balancing heating systems—adjusting valves, wasting time,...</t>
   </si>
   <si>
     <t xml:space="preserve"> Officine Mario Dorin is actively addressing the transition away from PFAS in refrigeration.</t>
@@ -1420,34 +1462,34 @@
     <t xml:space="preserve"> In response to the growing demand for high-efficiency products, Hanbell launched the RM-Pro series PM VFD screw compressor in 2024.</t>
   </si>
   <si>
-    <t xml:space="preserve"> What if a #DORIN starter pack looked like this? What would you still include in the ultimate DORIN starter kit? Drop it in the comments! At DORIN, we know it takes more than tools – it takes passion, innovation, and a serious love for CO₂You can’t box experience, but you can show what it means to be #Born2Freeze Image created with #AI#trend #artificialintelligence #DORIN #Born2Freeze #since1918 #passion #familybusiness #NatRefs #Innovation #RefrigerationTech #HVACR #CO2cooling #R744 #NaturalRe</t>
-  </si>
-  <si>
-    <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled systems.  Find all the insights for building better chillers here: https://bit.ly/3WEIIvK#Animation #Chiller #WaterCooled #HVAC</t>
-  </si>
-  <si>
-    <t>Die Expertenvorträge der diesjährigen Danfoss Fernwärme-Konferenz befassen sich mit allen zentralen Herausforderungen der Fernwärmewende – von der Projektplanung über die Dekarbonisierung der Netze durch die Nutzung alternativer Wärmequellen bis zur Optimierung des Netzbetriebs. Praxisbeispiele runden die Vortragsreihe ab. Interessierte haben die Möglichkeit, sich im Rahmen der Online-Veranstaltung vom 20. bis 22. Mai über planerische, technische, rechtliche und wirtschaftliche Aspekte der Umsetzung von Fer</t>
+    <t xml:space="preserve"> What if a #DORIN starter pack looked like this? What would you still include in the ultimate DORIN starter kit? Drop it in the comments! At DORIN, we know it takes more than tools – it takes...</t>
+  </si>
+  <si>
+    <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled systems.  Find all the insights for building better chillers here:...</t>
+  </si>
+  <si>
+    <t>Die Expertenvorträge der diesjährigen Danfoss Fernwärme-Konferenz befassen sich mit allen zentralen Herausforderungen der Fernwärmewende – von der Projektplanung über die Dekarbonisierung der Netze...</t>
   </si>
   <si>
     <t>Alt gegen Neu: Wir zeigen Ihnen welcher Kopf in welchem Anwendungsfall am besten passt!</t>
   </si>
   <si>
-    <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge solutions using #R290. This technology marks a major step forward for the industry, combining #sustainability with high performance.Frascold’s expertise in #NaturalRefrigerant applications played a key role in developing an efficient, low-impact system. Read the full #article to learn more: https://lnkd.in/dnnKbvQ2</t>
-  </si>
-  <si>
-    <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower operational expenses while also improving your building’s overall performance?  Danfoss provides retrofit solutions that enhance your building’s efficiency, enabling you to reduce costs and increase long-term value. Let’s work together to retrofit your buildings.  Learn more here: https://bit.ly/4iwG0RO#Retrofit #CommercialBuildings #DanfossClimateSolutions #HVAC</t>
-  </si>
-  <si>
-    <t>The video shows a factory tour of the new Danfoss Turbocor plant in Tallahassee, Florida, showcasing the production process that involves a high level of automation. One of the notable features highlighted is the fully automated end-of-line test that is conducted using the actual refrigerant, emphasizing the advanced technology and precision involved in the manufacturing process at the plant.</t>
-  </si>
-  <si>
-    <t>Behind each of our compressors is much more than an industrial process.There is the expertise of expert hands, the precision of quality control, the passion for a job well done.There is the value of Made in Italy, which for us means reliability, care and continuous innovation.Every compressor is assembled in-house and 100% tested, because our customers’ trust is built with deeds, not words.Reliable. Durable. Italian.This is our way of doing refrigeration.#SRMTec#MadeInItaly #Compressor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be unpacked at our upcoming RETHINK </t>
-  </si>
-  <si>
-    <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to gain insights on shaping a sustainable and collaborative future for trade and industry: https://ow.ly/2WPJ50Vw7LZ#Leadership #GlobalTrade #Innovation</t>
+    <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge solutions using #R290. This technology marks a major step forward for the...</t>
+  </si>
+  <si>
+    <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower operational expenses while also improving your building’s overall...</t>
+  </si>
+  <si>
+    <t>The video shows a factory tour of the new Danfoss Turbocor plant in Tallahassee, Florida, showcasing the production process that involves a high level of automation. One of the notable features...</t>
+  </si>
+  <si>
+    <t>Behind each of our compressors is much more than an industrial process.There is the expertise of expert hands, the precision of quality control, the passion for a job well done.There is the value of...</t>
+  </si>
+  <si>
+    <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R...</t>
+  </si>
+  <si>
+    <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to...</t>
   </si>
   <si>
     <t xml:space="preserve"> G&amp;D Chillers has chosen Frascold’s Z model semi-hermetic piston compressors for its new Elite 290 chiller series, a propane-based solution recently adopted by New Belgium Brewing.</t>
@@ -1456,106 +1498,97 @@
     <t xml:space="preserve"> April 8, 2025 BALTIMORE — Building on a successful collaboration established in 2019, Danfoss and Microsoft Corp. are expanding their</t>
   </si>
   <si>
-    <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop by booth #1124 tomorrow, April 9th, from 3:30–5:30 PM to connect over refreshments and discover our comprehensive cold chain solutions—from compressors and controls to advanced monitoring and cargo tracking. Plus, enter to win a Solo Stove.Don’t miss this chance to explore our booth, chat with our team, and see how we’re driving energy efficiency and sustai</t>
+    <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop by booth #1124 tomorrow, April 9th, from 3:30–5:30 PM to connect over...</t>
   </si>
   <si>
     <t xml:space="preserve"> April 7, 2025 Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate</t>
   </si>
   <si>
-    <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be u</t>
-  </si>
-  <si>
     <t xml:space="preserve"> March 18, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
   </si>
   <si>
-    <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global impact.Dive into the full interview to see how Copeland is driving change and innovating for a more sustainable tomorrow. Read on ACHR NEWS here: https://ow.ly/KlFn50VvLTO</t>
-  </si>
-  <si>
-    <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts to gain industry insights and discover how cutting-edge tem</t>
-  </si>
-  <si>
-    <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2 safety, repair &amp; service training, alongside system controls training. By working with the #KirbyApprenticeFund, we aim to drive industry growth, develop essential skills in natural refrigerant technology and build a more sustainable future.</t>
+    <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global...</t>
+  </si>
+  <si>
+    <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you...</t>
+  </si>
+  <si>
+    <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
   </si>
   <si>
     <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
   </si>
   <si>
-    <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
   </si>
   <si>
-    <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners, allowing us to help our customers achieve their sustainability goals  Learn more here: https://bit.ly/3FWzZzn#TransitionForward #Decarbonization #Biofuel #Bio100 #DanfossClimateSolutions #Decarbonization #HeatingSolutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts </t>
-  </si>
-  <si>
-    <t>Danfoss has experienced significant growth in sectors such as data centers, marine, and offshore businesses in China, aligning with the country’s emphasis on high-quality development. As China embarks on a new era of green and innovation-driven development, Kim Fausing, president and CEO of Danfoss, noted that the company has experienced robust growth across a variety of areas, such as its data center, semiconductor, marine and offshore businesses, as well as its battery energy storage systems. For example, its data center business surged 70 percent year-on-year, while its marine and offshore business grew by 29 percent on a yearly basis in China in 2024.While China transitions from the new construction market to focus on refurbishment and retrofitting, Fausing said building retrofits and large-scale equipment upgrades have become key development priorities in the country, creating significant opportunities for the group’s energy-efficient technologies. "With growing competition from local companies, the market momentum is already different in China. Only companies with strong agility and adaptability will win," he said, adding that China, regarded by Danfoss as its second home market, is a must-have and not a nice-to-have market.</t>
-  </si>
-  <si>
-    <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animation   Want to learn more? Check out our comprehensive Condensing Unit Installation walkthrough infographic: https://bit.ly/3Efajxe#Animation #Condenser #CondensingPressure #CondensingUnit #DanfossClimateSolutions</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 5000–6000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) can play a central role in reducing energy use and emissions across Europe’s building stock.  Buildings account for a large share of total energy demand—and the urgency to reduce that impact is growing. – BACS for HVAC upgrades can cut energy consumption by 15-38% with a return on investment in just 1-3 years – Adaptability is key – </t>
-  </si>
-  <si>
-    <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland Philippines team are integral to advancing our vision to create sustainable solutions that improve lives and protect the planet, helping to strengthen operational efficiencies and championing a culture of continuous improvement and environmentally conscious leadership.From driving the glob</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 65000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new display wa</t>
-  </si>
-  <si>
-    <t>Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement. This collaboration aims to deliver tangible benefits to customers, including a reduced carbon footprint, energy savings, enhanced end-user satisfaction, indoor comfort, and optimized building performance.</t>
+    <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners,...</t>
+  </si>
+  <si>
+    <t>Danfoss has experienced significant growth in sectors such as data centers, marine, and offshore businesses in China, aligning with the country’s emphasis on high-quality development. As China...</t>
+  </si>
+  <si>
+    <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animation   Want to learn more? Check out our comprehensive Condensing Unit...</t>
+  </si>
+  <si>
+    <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and...</t>
+  </si>
+  <si>
+    <t>At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) can play a central role in reducing energy use and emissions across Europe’s...</t>
+  </si>
+  <si>
+    <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland...</t>
   </si>
   <si>
     <t xml:space="preserve"> rackunit and Proemion systems seamlessly integrate with Danfoss hardware and the PLUS+1 Service Tool to provide remote diagnostics, service, and</t>
   </si>
   <si>
-    <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability with #R290. Our #Frascold Z model piston #compressors deliver top performance, a compact design and quiet operation; therefore helping to reduce energy consumption and environmental impact.With extensive expertise in #NaturalRefrigerants, Frascold is the ideal partner for driving the transition to innovative, eco-friendly solutions. Check out our technology in action and read the fu</t>
-  </si>
-  <si>
-    <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + WaterStill buzzing from the vibes at the fair (17–21 March)!A huge THANK YOU to our awesome #Customers who featured Dorin Compressors at their booths. Your dedication to #innovation and #sustainability keeps moving the industry forward - and we’re proud to be part of it.ENERBLUE S.R.L. - TEKO Refrigeration - Carrier HVAC EuropeSee you at the next big event!#Dorin #Compressors #Born2Free</t>
+    <t>Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement. This collaboration aims to deliver...</t>
+  </si>
+  <si>
+    <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability with #R290. Our #Frascold Z model piston #compressors deliver top...</t>
+  </si>
+  <si>
+    <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + WaterStill buzzing from the vibes at the fair (17–21 March)!A huge THANK YOU to our awesome #Customers...</t>
   </si>
   <si>
     <t>These businesses are collectively known as Bock Water Heaters, a Wisconsin-based manufacturer of commercial and specialty water-heating and -storage products.</t>
   </si>
   <si>
-    <t xml:space="preserve">Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold chain solutions driving sustainability and freshness across the food supply chain.This year, the GO Real-Time 4G/5G NA Shipment Tracking will be featured in the New Product Showcase. Track shipments with real-time alerts on temperature and location using 4G/5G and Wi-Fi. Get automated reports and real-time insights on your phone or tablet. With features like real-time alerts, </t>
+    <t>Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold chain solutions driving sustainability and freshness across the food...</t>
   </si>
   <si>
     <t xml:space="preserve"> Danfoss and Assemblin Caverion Group have signed a new framework agreement to strengthen their cooperation on building renovations and decarbonization efforts.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager Today we take you on a tour of a role that is fundamental to the functioning of our company: the Warehouse Manager. We have EROS PIEROPAN with us! Let’s get to know more about his journey and his daily work. How did you start this experience with us?“Five years ago I was contacted by the then manager and decided to accept, also to get closer to home. I had always worked in logistics, and the comp</t>
-  </si>
-  <si>
-    <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in Plastics (CIP) project, Danfoss and 16 industry leaders explored this challenge. In Denmark alone, up to 500,000 TRVs are discarded yearly. In 2024, we tested recycling options and launched a take-back pilot to reuse these materials in new Danfoss products - cutting emissions while maintaining top performance. As Nanna Aage Lundsgaard, Head of RD&amp;E at HydronicS, highlighted:</t>
-  </si>
-  <si>
-    <t>GEA is investing twelve million euros in the British company Caldera. Caldera has developed electric Storage Boilers that can store electricity in the form of heat that can be extracted on demand. The product is suitable for a wide area of applications. GEA sees it as an important element within holistic concepts for decarbonizing process heat demand between 100 and 200C, which is typical for many industrial processes.</t>
-  </si>
-  <si>
-    <t>Bradford White Corporation, an industry-leading manufacturer of water heaters, boilers and storage tanks, has announced the acquisition of Universal Technologies of Wisconsin Inc., Bock Water Heaters, Inc., and Tank Technology, Inc. These businesses are collectively known as Bock Water Heaters, the industry leader in oil-fired water heating and a well-known manufacturer of commercial and specialty water heating and storage products based in Wisconsin.</t>
-  </si>
-  <si>
-    <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial businesses.With extensive global leadership experience and a focus on aftermarket growth, Feilim brings exceptional understanding to Copeland’s business, where he most recently served as the interim leader of our Vilter Industrial business.Welcome to Copeland, Feilim - Together, we’re ready to inspire the next chapter of #Leadership and innovation.</t>
+    <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager Today we take you on a tour of a role that is fundamental to the functioning of our company: the Warehouse Manager. We have EROS...</t>
+  </si>
+  <si>
+    <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in Plastics (CIP) project, Danfoss and 16 industry leaders explored this...</t>
+  </si>
+  <si>
+    <t>GEA is investing twelve million euros in the British company Caldera. Caldera has developed electric Storage Boilers that can store electricity in the form of heat that can be extracted on demand....</t>
+  </si>
+  <si>
+    <t>Bradford White Corporation, an industry-leading manufacturer of water heaters, boilers and storage tanks, has announced the acquisition of Universal Technologies of Wisconsin Inc., Bock Water...</t>
+  </si>
+  <si>
+    <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial businesses.With extensive global leadership experience and a focus on...</t>
   </si>
   <si>
     <t xml:space="preserve"> An innovative solution serving New Belgium Brewing 02 April 2025 G&amp;D Chillers chooses Frascold compressors for the Elite 290 series, an innovative and sustainable solution for New Belgium Brewing.</t>
   </si>
   <si>
-    <t>G&amp;D Chillers has chosen Frascold Z model piston compressors for their new Elite 290 chiller series, which utilizes propane (R290) as a natural refrigerant to align with global regulations aimed at reducing emissions. The Elite 290 series, equipped with Frascold compressors, offers safe and efficient refrigeration solutions, with New Belgium Brewing being one of the first to adopt this technology in their commitment to environmental protection and climate change goals.</t>
-  </si>
-  <si>
-    <t>Danfoss and Assemblin Caverion Group have solidified their commitment to sustainability by signing a new framework agreement in Nordborg, Denmark. The agreement focuses on project work in various sectors such as hotels, data centers, shopping centers, municipalities, hospitals, universities. The collaboration between Danfoss and Assemblin Caverion Group underscores their shared dedication to promoting decarbonization and energy efficiency in buildings. Assemblin Caverion Group is a leading northern European technical service and installation company. The Group employs about 21,000 skilled professionals in nine countries, sharing the passion for smart and sustainable solutions.</t>
+    <t>G&amp;D Chillers has chosen Frascold Z model piston compressors for their new Elite 290 chiller series, which utilizes propane (R290) as a natural refrigerant to align with global regulations aimed at...</t>
+  </si>
+  <si>
+    <t>Danfoss and Assemblin Caverion Group have solidified their commitment to sustainability by signing a new framework agreement in Nordborg, Denmark. The agreement focuses on project work in various...</t>
   </si>
   <si>
     <t>Highlights for April 3-9 include Bob Dylan, the O’Jays, Tyler Childers, the Suburbs, Bright Eyes, Jack White, Shemekia Copeland and the Hard Quartet.</t>
@@ -1564,10 +1597,10 @@
     <t xml:space="preserve"> Copeland has announced a strategic investment in BlueHeart Energy, a Netherlands-based startup developing a thermo-acoustic heat pump.</t>
   </si>
   <si>
-    <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and authentic, always apply directly through our official website at Copeland.com/careers. Be aware that fraudulent job postings sometimes appear on third-party sites. These can mislead applicants with false opportunities. Protect yourself by verifying all job openings directly on our site.Visit Copeland.com/careers today to explore legitimate employment opportunities that drive inn</t>
-  </si>
-  <si>
-    <t>Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland will present at the Coalition for Renewable Natural Gas Wednesday Webinar Series April 2, at 1 PM ET. She will share an insightful case study highlighting how one company is transforming its operations with durable compression technology for RNG production.Don’t miss this opportunity to learn more about the innovative solutions driving advancements within RNG. Sign up for the w</t>
+    <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and authentic, always apply directly through our official website at...</t>
+  </si>
+  <si>
+    <t>Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland will present at the Coalition for Renewable Natural Gas Wednesday...</t>
   </si>
   <si>
     <t xml:space="preserve"> Consent to Cookies &amp; Data processing Die Innomotics GmbH , Nürnberg, und das dänische Unternehmen Danfoss Drives beginnen die nächste Phase ihrer strategischen, nicht-exklusiven Partnerschaft.</t>
@@ -1576,154 +1609,136 @@
     <t>USA: Copeland has invested in BlueHeart Energy, a Netherlands-based startup developing a novel thermo-acoustic-based heating technology.</t>
   </si>
   <si>
-    <t>Copeland has made a strategic investment in BlueHeart Energy, a Netherlands-based startup that is developing innovative heat pump technology. BlueHeart’s thermo-acoustic-based heating technology has the potential to complement current compressor technologies with a compact design and quiet operation, particularly suitable for smaller residences. Copeland’s investment will support BlueHeart in commercializing their technology and advancing sustainable heating solutions worldwide.</t>
-  </si>
-  <si>
-    <t>Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in BlueHeart Energy, accelerating next-generation heating and cooling technologies that support global #NetZero goals. With heat pumps capable of reducing CO2 emissions by 500M+ tonnes annually by 2030, combining the potential of BlueHeart’s innovative thermo-acoustic heat pump technology with Copeland’s industry expertise and proven technical experience will help to br</t>
-  </si>
-  <si>
-    <t>Linkedin Video: The industry is shifting towards more efficient and sustainable solutions, as highlighted in an interview with Jakob Tercon from Zudek discussing the air-cooled chiller with Frascold Aluminium compressors showcased at ISH Frankfurt 2025.</t>
-  </si>
-  <si>
-    <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, they retrofitted their system with our NeoCharge, achieving: 705 Ammonia charge reduced to under 7 tons705 Improved recirculation rate from 3 to 1.5705 Enhanced safety and compliance Read the full newsletter here.#NeoCharge #IndustrialRefrigeration #DanfossClimateSolutions</t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about importance of hydronic balancing in multifamily buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/3FK31SO#TakingTheTemperatureOnHVACR #HydronicBalanc</t>
-  </si>
-  <si>
-    <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression solutions at the event, engaging with industry peers to explore innovative technological approaches for energy transformation.As a leading compressor manufacturer in the industry, Snowman Group leverages its core compressor technologies and customized engineering capabilities to deliver comprehensive compress</t>
-  </si>
-  <si>
-    <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in a portfolio of valves designed to enable the use of Danfoss high-power axial piston motors in open-circuit systems. The FHPRV enables machine designers to leverage the benefits of the H1B motor’s compact design and outstanding efficiency while also providing overpressure protection in high-power applicatio</t>
-  </si>
-  <si>
-    <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to announce the next phase of their strategic, non-exclusive partnership. This was announced at the HANNOVER MESSE today where Michael Reichle, Innomotics CEO, Mika Kulju, President of Danfoss Drives, attended the Innomotics booth.</t>
+    <t>Copeland has made a strategic investment in BlueHeart Energy, a Netherlands-based startup that is developing innovative heat pump technology. BlueHeart’s thermo-acoustic-based heating technology has...</t>
+  </si>
+  <si>
+    <t>Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in BlueHeart Energy, accelerating next-generation heating and cooling technologies that...</t>
+  </si>
+  <si>
+    <t>Linkedin Video: The industry is shifting towards more efficient and sustainable solutions, as highlighted in an interview with Jakob Tercon from Zudek discussing the air-cooled chiller with Frascold...</t>
+  </si>
+  <si>
+    <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, they retrofitted their system with our NeoCharge, achieving: 705 Ammonia...</t>
+  </si>
+  <si>
+    <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about importance of hydronic...</t>
+  </si>
+  <si>
+    <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression...</t>
+  </si>
+  <si>
+    <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to...</t>
+  </si>
+  <si>
+    <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in...</t>
   </si>
   <si>
     <t>DENMARK: Danfoss Climate Solutions has named Dennis Appel as divisional president of its newly established Controls and Thermal Management division.</t>
   </si>
   <si>
-    <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step forward in collaboration and innovation. With representatives from 26 facilities supporting over 10,000 colleagues that are responsible for delivering 1M+ shipments annually, the conversation focused on fostering an integrated network that exceeds customer expectations. Highlights included hearing from Copeland leaders, engaging in meaningful discussions and exploring supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025 will be a game-changer for HVAC/R! Are you ready?#Frascold is set to launch new series of semi-hermetic #compressors, designed to push boundaries and deliver cutting-edge solutions. With temperatures reaching up to 165°C, these innovations will unlock new possibilities for district heating, industrial #HeatPumps and advanced thermal processes.Efficiency, reliability and quiet operation will be at the core of this evolution, with optimized technologies to reduce energy consumption and extend </t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about the importance of hydronic balancing in multi-family buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/4c1ub3y#TakingTheTemperatureOnHVACR #Hydron</t>
-  </si>
-  <si>
-    <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity, and harmony that make our workplace truly special.The event was attended by Fred Burdell, our Chief Information Officer, underscoring its significance as a moment of collaboration and shared purpose.</t>
-  </si>
-  <si>
-    <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Discover how switch set-ups, sensors, and advanced controls can help achieve this.  Dive deeper into the world of pressure sensors with our eLesson: https://bit.ly/3XAU7gx#Animation #WaterTank #WaterPressure #Sensors</t>
-  </si>
-  <si>
-    <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A villa station built for multi-family housing, with one controlled heating circuit and integrated storage loading system   Termix Compact 28 VVX-FI – An efficient buffer loading station, controlling two heating circuits and external domestic hot water connection</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Michael Nagler introduced the BOCK HG88 compressor, which is the largest semi-hermetic compressor offered by the company. This compressor features an 8-cylinder reciprocating design, providing the highest swept volume on the market for increased cooling capacity, efficiency, and stable performance in large systems. Specifically designed for industrial and district heat pump applications, the compressor boasts optimized refrigerant flow to reduce energy consumption while maximizing system performance and efficiency. It also offers smooth and reliable operation with minimal vibrations, making it suitable for demanding heating and cooling applications. The BOCK HG88 compressor is available with various refrigerants such as propane, HFC, and HFO, and comes with additional options like a capacity regulator, oil pressure differential switch, and the compressor oil management regulator. Overall, this compressor is positioned to support large-scale decarbonization projects through high-performance heat pump systems. The BOCK HG88 compressor stands out for its unmatched capacity and flexibility, making it a valuable asset for decarbonization initiatives. With its high cooling capacity, efficiency, and stable performance, this compressor is ideal for large-scale heat pump systems in industrial and district heating applications. Its design ensures optimized refrigerant flow, reduced energy consumption, and smooth operation, making it a reliable choice for demanding heating and cooling requirements. Available with various refrigerants and additional features for enhanced control and management, the BOCK HG88 compressor is well-equipped to contribute to decarbonization efforts and support the transition towards more sustainable HVAC solutions.</t>
-  </si>
-  <si>
-    <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss of life, destruction, and immense suffering. At Copeland, our thoughts are with the people of Myanmar, Thailand and the region, especially those who have lost loved ones, their homes, and their sense of security.</t>
-  </si>
-  <si>
-    <t>Copeland has recently opened a new office in Santiago, Chile, as part of a strategic move to enhance its presence in Latin America. The company celebrated this milestone by hosting a special event for clients and collaborators, providing an opportunity to connect, express gratitude, and introduce the new space designed to promote innovation and strengthen partnerships in the region. This expansion signifies Copeland’s commitment to growth and innovation in the HVACR industry in Latin America.</t>
-  </si>
-  <si>
-    <t>Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division. This new division unites the expertise of heat exchangers with refrigeration, cooling, and air conditioning technologies to accelerate innovation and enhance efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor.  Featuring an 8-cylinder reciprocating design, it offers the highest swept volume on the market, providing higher cooling capacity, improved efficiency, and stable performance in large systems: up to 281 m³/h at 50 Hz, and 337 m³/h at 60 Hz  Designed for industrial and district heat pump applications, it features optimized refrigerant flow, reducing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with a pre-assembled, compact connection set. With the newly introduced ‘right-hand’ version we increase the many possibilities even further. 705 AB-QM 4.0 CO6 Flexo – the 3rd price winner of the Best of SHK Award in the category ‘Installation’ is a reliable and service-friendly </t>
+    <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step forward in collaboration and innovation. With representatives from 26...</t>
+  </si>
+  <si>
+    <t>2025 will be a game-changer for HVAC/R! Are you ready?#Frascold is set to launch new series of semi-hermetic #compressors, designed to push boundaries and deliver cutting-edge solutions. With...</t>
+  </si>
+  <si>
+    <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about the importance of...</t>
+  </si>
+  <si>
+    <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity,...</t>
+  </si>
+  <si>
+    <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Discover how switch set-ups, sensors, and advanced controls can help achieve this....</t>
+  </si>
+  <si>
+    <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A...</t>
+  </si>
+  <si>
+    <t>At ISH 2025, Michael Nagler introduced the BOCK HG88 compressor, which is the largest semi-hermetic compressor offered by the company. This compressor features an 8-cylinder reciprocating design,...</t>
+  </si>
+  <si>
+    <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss of life, destruction, and immense suffering. At Copeland, our thoughts...</t>
+  </si>
+  <si>
+    <t>Copeland has recently opened a new office in Santiago, Chile, as part of a strategic move to enhance its presence in Latin America. The company celebrated this milestone by hosting a special event...</t>
+  </si>
+  <si>
+    <t>Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division. This new division unites the expertise of heat exchangers...</t>
+  </si>
+  <si>
+    <t>Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor.  Featuring an 8-cylinder reciprocating design, it offers the highest swept volume on...</t>
+  </si>
+  <si>
+    <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with...</t>
   </si>
   <si>
     <t>TEKO Refrigeration Americas and Weston S.A.S showcase DORIN CO₂ compressors powering a cutting-edge refrigeration system for over 10,000 m² of refrigerated space.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Danfoss and Microsoft have announced an expanded partnership aimed at accelerating the use of artificial intelligence and cloud-based technologies in food retail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Copeland offers expert tips to get started March 27, 2025</t>
-  </si>
-  <si>
-    <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharing our latest temperature monitoring and oversight software and services solutions in booth #1124. Visit us in our booth for a chance to win a Solo Stove. Experience our energy-efficient systems designed to minimize waste, lower emissions and maximize food quality.Register today: https://ow.ly/bEIH50VphBT#CPMA2025 #CPMA #2025NPS</t>
-  </si>
-  <si>
-    <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial</t>
-  </si>
-  <si>
-    <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial #HeatPumps! Our partner Gebwell - puhdasta lämpöä has chosen Frascold for its latest brine-to-water G-Eco commercial heat pumps, designed for maximum efficiency and reliability. Running on #R290, with an ultra-low GWP, it’s a step forward for eco-friendly #heating.A collaboration that reflects a shared commitment to #innovation and #sustainab</t>
-  </si>
-  <si>
-    <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and cloud technology to cut energy use, reduce food waste, and lower emissions  Danfoss Alsense® our cloud-based supermarket solution, already delivers impact:705 Cuts food waste by up to 30%705 Reduces refrigeration energy use by up to 15%705 Provides 24/7 monitoring, real-time insights &amp; proactive issue detection  Now, with Microsoft’s AI, Alse</t>
-  </si>
-  <si>
-    <t>Day 1 Highlights from cippe ChinaSnowman Group made a strong presence at Booth E3555, showcasing a range of innovative products and hosting a technical exchange session for new product technologies. Meanwhile, our experts shared insights on industry-leading topics at the forum, engaging with peers to explore the future of the industry.The exhibition is in full swing—come visit us and be part of the conversation on innovation in petrochemicals and mechanical equipment!#SnowmanGroup #SRM #SRM</t>
-  </si>
-  <si>
-    <t>Kristian Strand wird neuer Präsident bei Danfoss Climate Solutions ( www.danfoss.de ). Er übernimmt von Jürgen Fischer, der sich nach 16 Jahren bei Danfoss in den Ruhestand verabschiedet. Strand, der bisher Präsident der Division Commercial Compressors bei Danfoss Climate Solutions war, hat seine neue Rolle zum 1. April 2025 angetreten und wurde damit auch Mitglied des Danfoss Vorstands. Zuvor leitete er die Division Refrigeration &amp; Air Conditioning Controls bei Danfoss Climate Solutions. Strand</t>
-  </si>
-  <si>
-    <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre Date: April 27-29, 2025 Booth: E1F15We’re excited to invite you to the 36th International Exhibition for Refrigeration, Air-Conditioning, Heating and Ventilation, Frozen Food Processing, Packaging, and Storage!Discover our latest technological breakthroughs and cutting-edge exhibition products designed to enhance efficiency and sustainability in the refrig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regulations requiring a system charge below 10 tons, Yinli needed a reliable solution that ensured compliance while maintaining operational performance. To meet these requirements, NeoCharge was implemented, significantly reducing the ammonia charge while enhancing safety and efficiency. 705 Regulatory compliance – Meeting strict safety standards with confidence 705 </t>
-  </si>
-  <si>
-    <t>#Frascold at ISH Frankfurt 2025: Innovation in Action!Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminium #compressors integrated into Zudek air-cooled #chiller, a solution designed to meet the evolving needs of the #HVAC industry.Why choose #ammonia? The market increasingly demands #natural #refrigerants that deliver energy efficiency, low noise levels and maximum reliability.With Frascold’s technology, the risk of refrigerant leaks is eliminated, ensuring a safer</t>
-  </si>
-  <si>
-    <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of our global manufacturing network and R&amp;D innovation hub, supporting the APAC region and beyond.This milestone celebration brought together senior leaders, including Meisel Seth from Blackstone, Copeland CEO Ross B. Shuster, Chief Transformation and Sustainability Officer Tracy Reiter and Asia Pacific President Michael Toh, alongside the Copeland China team, industry partners a</t>
-  </si>
-  <si>
-    <t>– Danfoss Power Solutions today announced the production launch of its Editron ED3 onboard charger and electric power take-off (ePTO). Initially designed for on-highway applications and currently in use in thousands of Volvo electric trucks, the ED3 has now been standardized with communication protocols, software, and documentation for off-highway applications. The ED3 enables rapid overnight and opportunity charging for heavy-duty electric machinery using readily available AC chargers. Its three-in-on</t>
-  </si>
-  <si>
-    <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lies in retrofitting. Even small improvements in how energy flows through a building can make a significant impact.  Did you know?– Over 30% of the EU’s energy-related greenhouse gas (GHG) emissions come from buildings. – 80% of energy supplied to buildings is still derived from fossil fuel sources. An effective retrofit strategy looks at ho</t>
-  </si>
-  <si>
-    <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out.On Thursday, March 27, 2025, from 9:45 AM – 10:45 AM, hear from Jim Fultz of Copeland as he breaks down the hidden costs of unoptimized operations in his session, The Cost of Rolling a Truck (How to Lose Money Without Trying). Discover how to tip the scales toward profit and make smarter decisions for your business every single day.#ACCA2025</t>
-  </si>
-  <si>
-    <t>Aggressive R&amp;D: We’re investing at like 4% of revenue, which is quite significant, and the biggest portion of that pays for 2,300 engineers and researchers. That’s a big army of people.” Future Outlook: The acceleration toward variable speed will sharpen Copeland’s focus on its electronics and, longer term, he thinks natural or low-GWP refrigerants will be a major player in determining the direction of the market. At the Helix Innovation Center, a massive 40,000-square-foot research facility in Ohio, he said that’s one of the biggest focuses right now. “A very, very high percentage of the efforts at The Helix has gone into natural and low GWP,” Forsythe said. “It’s variable speed driving energy efficiency and natural or low GWP. That’s driven by regulatory, of course, but it’s also the right thing". Centrifugal Technology: Magnetic bearings have been more popular in high-efficiency compressors, but Copeland is shaking that up with its Aero-lift bearing. “We’ve come up with what I’d say is a different, and in many ways, better solution to a problem,” he said. The Aero-lift bearing can stand up to intense conditions, such as sudden power interruptions or rapid restarts, which is perfect in an application like oil-free centrifugal compressors.</t>
-  </si>
-  <si>
-    <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!  Venue: Riyadh Front, Saudi Arabia  Date: April 13-15, 2025  Stand: Hall 2, G2-58We’re excited to showcase our latest refrigeration and food processing solutions at SaudiFood Manufacturing 2025—the leading event for the food and beverage industry in the region.Visit us to explore cutting-edge cooling and freezing technologies designed to optimize efficiency a</t>
-  </si>
-  <si>
-    <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This visit underscored the site’s manufacturing excellence, operational strength and commitment to safety. Connecting with the leadership team, the Thai team shared their achievements and demonstrated Copeland’s dedication to operational excellence and innovation.#CopelandThailand #SafetyFirst</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> March 24, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In June 2023, Ross B. Shuster joined Copeland as chief executive officer (CEO), following the acquisition of the company by Blackstone from Emerson.</t>
-  </si>
-  <si>
-    <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to your sustainability goals — helping you optimize energy usage, achieve efficiency targets and capitalize on financial opportunities.With Copeland’s CC200 case controller and the Cold Chain Connect app, case management is at your fingertips. Read our white paper to unlock an integrated control strategy for #CO2: https://ow.ly/AYGl50VmrOn</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is heading.  Biofuel-ready heating is gaining traction as manufacturers respond to shifting regulations and rising demand for sustainable solutions.  While the market still adjusts to supply and performance concerns, early adopters and regulatory momentum are pushing things forward.  Danfoss sees biofuels as a key transitional solution on th</t>
-  </si>
-  <si>
-    <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what kind of economic and environmental benefits will this bring to the company?Today is the "Earth Hour" in 2025. During the hour from 20:30 to 21:30Beijing Standard Time, the World Wildlife Fund calls on and advocates turning off unnecessary electricity.Every kilowatt-hour of electricity is hard-earned. From solid waste and hazardous waste treatment to petrochemical</t>
-  </si>
-  <si>
-    <t>Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX?Copeland’s Shane Angle will be participating in the Manufacturer Leadership Forum on March 26, an interactive Q&amp;A session on current events in the HVACR industry: https://ow.ly/oWNq50Vms5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ISH2025 is a wrap! Thank you everyone for these amazing 5 days where we have discovered all our different technologies to enhance decarbonization in commercial and residential buildings and district energy grids.  We are also proud to announce that our AB-QM 4.0 CO6 Flexo and EvoFlat 4.0 were awarded the eBest of SHK Award 2025“    If you were not able to join us physically at the show you can still have a look at everything that happened in our </t>
-  </si>
-  <si>
-    <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and explored the ATEX-HT #compressor series with us.Relive the highlights, from exciting product showcases to valuable industry connections that are shaping the future of high-temperature #HeatPump technology.The innovation doesn’t stop here! Discover more about the ATEX-HT series and its game-changing potential: https://lnkd.in/drUgpFBP See you at the next event!</t>
-  </si>
-  <si>
-    <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25-27 in Pittsburgh, PA . The free event offers refrigeration technicians diverse training opportunities on the latest #CO2 and #R290 technologies from leading industry experts. Copeland trainers Alain Mongrain, Michael Hill, Brent Cheshire and Michael J. Squires will lead sessions where attendees can gain valuable knowledge of the latest natural refrigerant capabilities to prepa</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building managers to remotely monitor, control, and maintain their building’s heating system. 705 Remote monitoring, control, and predictive maintenance 705 Danfoss Icon2™ integration for energy-efficient floor heating 705 Lighter composite build—easy handling, powerful performance With EvoFlat 4.0 PRO, building owners can take control of their heating s</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333250921482649602</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333205626983985152</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333160353024942080</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333131185381941249</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333089370532384771</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333057295955689472</t>
+  </si>
+  <si>
+    <t>https://www.shk-journal.de/news/dallmer-sicherer-umgang-mit-wasser-von-der-ver-zur-entsorgung.html</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7332675947566907393</t>
+  </si>
+  <si>
+    <t>http://fnbnews.com/Agriculture/copeland-partners-with-ecozen-to-aidagriculture-sector-82816</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/88876</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331959686415409152</t>
+  </si>
+  <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/cf/intelligent-heating-made-simple-danfoss-and-eon-one-join-forces/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331671573759717377</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331634923906269184</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/88836</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331333039035158528</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331325526495686656</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331680362739183616</t>
+  </si>
+  <si>
+    <t>https://www.hanbell.com.cn/financial-reports</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7331235301433970692</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7330956149606752256</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7330917839245082625</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7330608633992372230</t>
@@ -1732,7 +1747,7 @@
     <t>https://www.industryemea.com/companies/733-gea-group-news</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7330548185385295873</t>
+    <t>https://www.danfoss.com/en/service-and-support/downloads/dhs/danfoss-heat-recovery-tool/?utm_source=LinkedIn&amp;utm_medium=social_organic&amp;utm_campaign=Heat_recovery_tool_cid_419973</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7330525237005979648</t>
@@ -1864,12 +1879,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7328015991475474434</t>
   </si>
   <si>
+    <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
+  </si>
+  <si>
     <t>https://www.industryemea.com/companies/3780-copeland-news</t>
   </si>
   <si>
-    <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7327991912190111744</t>
   </si>
   <si>
@@ -2320,15 +2335,15 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7315753878652628995</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
+  </si>
+  <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
-  </si>
-  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
   </si>
   <si>
@@ -2350,12 +2365,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7313960764300488704</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-partners-with-trackunit-and-proemion-to-deliver-enhanced-connectivity-solutions-for-mobile-machinery/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-partners-with-trackunit-and-proemion-to-deliver-enhanced-connectivity-solutions-for-mobile-machinery/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7313842082765246465</t>
   </si>
   <si>
@@ -2431,12 +2446,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7312737997664239616</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
-  </si>
-  <si>
     <t>https://www.coolingpost.com/world-news/appel-named-president-of-new-danfoss-division/</t>
   </si>
   <si>
@@ -2476,88 +2491,25 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7312368683853479936</t>
   </si>
   <si>
-    <t>https://refindustry.com/news/market-news/danfoss-and-microsoft-expand-ai-collaboration-to-cut-food-waste-and-emissions-in-food-retail/</t>
-  </si>
-  <si>
-    <t>https://www.achrnews.com/articles/164354-smart-hvac-5-must-knows-for-contractors</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311009628127928320</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-and-microsoft-an-ai-powered-alliance-to-drive-sustainability-ambitions/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310985758343913474</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310964303321325568</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310924925010108416</t>
-  </si>
-  <si>
-    <t>https://www.kka-online.info/artikel/kristian-strand-folgt-juergen-fischer-als-praesident-von-danfoss-climate-solutions-4225143.html</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310820358016667651</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310631971062243332</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310609017930756096</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310450565925203969</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-announces-production-launch-of-editron-ed3-onboard-charger-and-epto-bringing-rapid-ac-charging-to-off-highway-applications/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310299508360314880</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310284833765658624</t>
-  </si>
-  <si>
-    <t>https://www.achrnews.com/articles/164332-copeland-cto-talks-innovation-companys-future</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310195238566825985</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7310103229025894400</t>
-  </si>
-  <si>
-    <t>https://www.achrnews.com/articles/164341-dennis-appel-to-lead-new-danfoss-controls-and-thermal-management-division</t>
-  </si>
-  <si>
-    <t>https://www.ejarn.com/article/detail/87976</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7309922411896807424</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7309842669705310208</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7309182060424794113</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7308883856684650496</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7308940816671027201</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7308925383632998403</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7308835482950324224</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7308833393905987586</t>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
   </si>
   <si>
     <t>2025-05-20</t>
@@ -2711,24 +2663,6 @@
   </si>
   <si>
     <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2723,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D298" totalsRowShown="0">
-  <autoFilter ref="A1:D298"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D290" totalsRowShown="0">
+  <autoFilter ref="A1:D290"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Summary"/>
@@ -3086,7 +3020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3111,13 +3045,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3125,13 +3059,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3139,13 +3073,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3153,13 +3087,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3167,13 +3101,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3181,13 +3115,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3195,13 +3129,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3209,111 +3143,111 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="D9" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D11" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D13" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D14" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D15" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D16" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3321,13 +3255,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D17" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3335,13 +3269,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D18" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3349,13 +3283,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D19" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3363,13 +3297,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D20" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3377,69 +3311,69 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D21" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="D22" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D24" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D25" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3447,13 +3381,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="D26" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3461,13 +3395,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="D27" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3475,13 +3409,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="D28" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3489,13 +3423,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3503,13 +3437,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="D30" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3517,13 +3451,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="D31" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3531,1217 +3465,1217 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="D32" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D33" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D34" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D35" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="D36" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D37" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D38" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D39" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="D40" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D41" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="D42" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="D43" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="D44" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="D45" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="D46" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="D47" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="D48" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="D49" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="D50" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="D51" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="D52" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>326</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D53" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="D54" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="D55" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="D56" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="D57" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="D58" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="D59" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="D60" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="D61" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="D62" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="D63" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="D64" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="D65" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="D66" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="D67" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="D68" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="D69" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="D70" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="D71" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="D72" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="D73" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="D74" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="D75" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D76" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="D77" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="D78" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="D79" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D80" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="D81" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="D82" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="D83" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="D84" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="D85" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D86" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="D87" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D88" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="D89" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="D90" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="D91" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="D92" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="D93" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="D94" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="D95" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="D96" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="D97" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="D98" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="D99" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="D100" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="D101" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D102" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="D103" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="D104" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="D105" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="D106" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="D107" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="D108" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="D109" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="D110" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="D111" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="D112" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="D113" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="D114" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="D115" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="D116" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="D117" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="D118" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4749,13 +4683,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="D119" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4763,27 +4697,27 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D120" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D121" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4791,13 +4725,13 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="D122" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4805,13 +4739,13 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="D123" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4819,13 +4753,13 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="D124" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4833,13 +4767,13 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="D125" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4847,13 +4781,13 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="D126" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4861,13 +4795,13 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D127" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4875,13 +4809,13 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D128" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4889,13 +4823,13 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="D129" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4903,13 +4837,13 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="D130" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4917,13 +4851,13 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="D131" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4931,13 +4865,13 @@
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D132" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4945,13 +4879,13 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="D133" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4959,13 +4893,13 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="D134" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4973,13 +4907,13 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="D135" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4987,13 +4921,13 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D136" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5001,13 +4935,13 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="D137" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5015,13 +4949,13 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="D138" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5029,13 +4963,13 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="D139" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5043,13 +4977,13 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="D140" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5057,153 +4991,153 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="D141" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D142" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="D143" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="D144" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="D145" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="D146" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D147" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="D148" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D149" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="D150" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="D151" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5211,13 +5145,13 @@
         <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="D152" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5225,13 +5159,13 @@
         <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="D153" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5239,13 +5173,13 @@
         <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="D154" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5253,13 +5187,13 @@
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="D155" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5267,13 +5201,13 @@
         <v>150</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="D156" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5281,13 +5215,13 @@
         <v>151</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="D157" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5295,13 +5229,13 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="D158" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5309,13 +5243,13 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="D159" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5323,13 +5257,13 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="D160" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5337,111 +5271,111 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D161" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="D162" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="D163" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="D164" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="D165" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="D166" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="D167" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="D168" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5449,13 +5383,13 @@
         <v>162</v>
       </c>
       <c r="B169" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="D169" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5463,13 +5397,13 @@
         <v>163</v>
       </c>
       <c r="B170" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="D170" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5477,13 +5411,13 @@
         <v>164</v>
       </c>
       <c r="B171" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="D171" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5491,13 +5425,13 @@
         <v>165</v>
       </c>
       <c r="B172" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="D172" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5505,69 +5439,69 @@
         <v>166</v>
       </c>
       <c r="B173" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="D173" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="D174" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B175" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="D175" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B176" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="D176" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="D177" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5575,13 +5509,13 @@
         <v>170</v>
       </c>
       <c r="B178" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="D178" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5589,13 +5523,13 @@
         <v>171</v>
       </c>
       <c r="B179" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="D179" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5603,13 +5537,13 @@
         <v>172</v>
       </c>
       <c r="B180" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="D180" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5617,13 +5551,13 @@
         <v>173</v>
       </c>
       <c r="B181" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="D181" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5631,13 +5565,13 @@
         <v>174</v>
       </c>
       <c r="B182" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="D182" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5645,13 +5579,13 @@
         <v>175</v>
       </c>
       <c r="B183" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="D183" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5659,517 +5593,517 @@
         <v>176</v>
       </c>
       <c r="B184" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="D184" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B185" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="D185" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="D186" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B187" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D187" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B188" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="D188" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B189" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="D189" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="D190" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="D191" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B192" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="D192" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B193" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="D193" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B194" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="D194" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="D195" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B196" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="D196" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="D197" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="D198" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="D199" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="B200" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="D200" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="D201" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B202" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="D202" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B203" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="D203" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D204" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B205" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="D205" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D206" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D207" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B208" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D208" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B209" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="D209" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="D210" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="D211" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="D212" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="D213" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D214" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D215" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D216" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D217" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="D218" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D219" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="D220" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6177,13 +6111,13 @@
         <v>211</v>
       </c>
       <c r="B221" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D221" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6191,307 +6125,307 @@
         <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D222" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B223" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D223" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="B224" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D224" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B225" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="D225" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D226" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B227" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="D227" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B228" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="D228" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="D229" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B230" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="D230" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="D231" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B232" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="D232" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B233" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D233" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B234" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D234" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="D235" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="D236" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B237" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="D237" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B238" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D238" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B239" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="D239" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="D240" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D241" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B242" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="D242" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B243" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D243" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6499,13 +6433,13 @@
         <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="D244" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6513,391 +6447,391 @@
         <v>233</v>
       </c>
       <c r="B245" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D245" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B246" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="D246" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B247" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="D247" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="B248" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="D248" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B249" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="D249" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B250" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="D250" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B251" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="D251" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="B252" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="D252" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B253" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="D253" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B254" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="D254" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="D255" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="D256" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="D257" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B258" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="D258" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B259" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="D259" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B260" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="D260" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B261" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="D261" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B262" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D262" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D263" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B264" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D264" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B265" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="D265" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B266" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="D266" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B267" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D267" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D268" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B269" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="D269" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B270" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="D270" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B271" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="D271" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="B272" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="D272" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6905,27 +6839,27 @@
         <v>259</v>
       </c>
       <c r="B273" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="D273" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="B274" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D274" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6933,13 +6867,13 @@
         <v>260</v>
       </c>
       <c r="B275" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D275" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6947,13 +6881,13 @@
         <v>261</v>
       </c>
       <c r="B276" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D276" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6961,13 +6895,13 @@
         <v>262</v>
       </c>
       <c r="B277" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D277" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6975,13 +6909,13 @@
         <v>263</v>
       </c>
       <c r="B278" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D278" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6989,13 +6923,13 @@
         <v>264</v>
       </c>
       <c r="B279" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D279" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7003,13 +6937,13 @@
         <v>265</v>
       </c>
       <c r="B280" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D280" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7017,13 +6951,13 @@
         <v>266</v>
       </c>
       <c r="B281" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D281" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7031,13 +6965,13 @@
         <v>267</v>
       </c>
       <c r="B282" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D282" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7045,13 +6979,13 @@
         <v>268</v>
       </c>
       <c r="B283" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="D283" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7059,13 +6993,13 @@
         <v>269</v>
       </c>
       <c r="B284" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="D284" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7073,13 +7007,13 @@
         <v>270</v>
       </c>
       <c r="B285" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D285" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7087,13 +7021,13 @@
         <v>271</v>
       </c>
       <c r="B286" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="D286" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7101,13 +7035,13 @@
         <v>272</v>
       </c>
       <c r="B287" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="D287" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7115,13 +7049,13 @@
         <v>273</v>
       </c>
       <c r="B288" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="D288" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7129,13 +7063,13 @@
         <v>274</v>
       </c>
       <c r="B289" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="D289" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7143,125 +7077,13 @@
         <v>275</v>
       </c>
       <c r="B290" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="D290" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
-        <v>276</v>
-      </c>
-      <c r="B291" t="s">
-        <v>563</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D291" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
-        <v>277</v>
-      </c>
-      <c r="B292" t="s">
-        <v>564</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D292" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
-        <v>278</v>
-      </c>
-      <c r="B293" t="s">
-        <v>278</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D293" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>279</v>
-      </c>
-      <c r="B294" t="s">
-        <v>565</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D294" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>280</v>
-      </c>
-      <c r="B295" t="s">
-        <v>566</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D295" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
-        <v>281</v>
-      </c>
-      <c r="B296" t="s">
-        <v>567</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D296" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
-        <v>282</v>
-      </c>
-      <c r="B297" t="s">
-        <v>568</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D297" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>283</v>
-      </c>
-      <c r="B298" t="s">
-        <v>569</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D298" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -7555,18 +7377,10 @@
     <hyperlink ref="C288" r:id="rId287"/>
     <hyperlink ref="C289" r:id="rId288"/>
     <hyperlink ref="C290" r:id="rId289"/>
-    <hyperlink ref="C291" r:id="rId290"/>
-    <hyperlink ref="C292" r:id="rId291"/>
-    <hyperlink ref="C293" r:id="rId292"/>
-    <hyperlink ref="C294" r:id="rId293"/>
-    <hyperlink ref="C295" r:id="rId294"/>
-    <hyperlink ref="C296" r:id="rId295"/>
-    <hyperlink ref="C297" r:id="rId296"/>
-    <hyperlink ref="C298" r:id="rId297"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId298"/>
+    <tablePart r:id="rId290"/>
   </tableParts>
 </worksheet>
 </file>
--- a/updated.xlsx
+++ b/updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="901">
   <si>
     <t>Title</t>
   </si>
@@ -28,6 +28,51 @@
     <t>Date</t>
   </si>
   <si>
+    <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRMTec in 60 seconds: technology, precision, passion. We manufacture screw and piston compressors for refrigeration</t>
+  </si>
+  <si>
+    <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environment</t>
+  </si>
+  <si>
+    <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland tha</t>
+  </si>
+  <si>
+    <t>Industrial applications demand reliability, precision and efficiency. Copeland’s innovative Vilter single-screw compression</t>
+  </si>
+  <si>
+    <t>We were thrilled to host the North Florida Refrigerating Engineers &amp; Technicians Association (RETA) - Official Page Chapter meet</t>
+  </si>
+  <si>
+    <t>Mark your calendars for June 12, 2025, at 11 am CET, as we’re hosting an online session – Retrofitting Commercial Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copeland has partnered with Ecozen to deliver solar-powered cold room systems that enable efficient, off-grid refrigeration for </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Join Our Dynamic Team at Snowman Group!  We are excited to announce the following openings:  Sale</t>
+  </si>
+  <si>
+    <t>Copeland Sensi Equipment Interface Module</t>
+  </si>
+  <si>
+    <t>Copeland Thailand Innovation Drives Sustainability, Efficiency, &amp; Safety Wins</t>
+  </si>
+  <si>
+    <t>Innovations in refrigeration are shaping a more sustainable, efficient future across North America. On June 11 at the ATMOsphere</t>
+  </si>
+  <si>
+    <t>NeoCharge is transforming industrial refrigeration by reducing refrigerant charge in both new and existing systems. With easy in</t>
+  </si>
+  <si>
+    <t>From Deep-Sea Fishing to End-Point RetailSnowman Refrigeration Technology Locks in Every Bite of Freshness. See you at CHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looking back on an inspiring day: “#Hydrocarbons in the Future of #HVACR” – Padua, May 23. The energ</t>
+  </si>
+  <si>
     <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão</t>
   </si>
   <si>
@@ -223,12 +268,12 @@
     <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manag</t>
   </si>
   <si>
+    <t>Copeland News</t>
+  </si>
+  <si>
     <t>Copeland expands US partnership with Mysa smart thermostats</t>
   </si>
   <si>
-    <t>Copeland News</t>
-  </si>
-  <si>
     <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in</t>
   </si>
   <si>
@@ -682,18 +727,18 @@
     <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on gr...</t>
   </si>
   <si>
+    <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
+  </si>
+  <si>
+    <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
+  </si>
+  <si>
     <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
   </si>
   <si>
     <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
   </si>
   <si>
-    <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
-  </si>
-  <si>
-    <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
-  </si>
-  <si>
     <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps sup</t>
   </si>
   <si>
@@ -814,34 +859,49 @@
     <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office ble</t>
   </si>
   <si>
-    <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Dis</t>
-  </si>
-  <si>
-    <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a </t>
-  </si>
-  <si>
-    <t>BOCK: 8-Cylinder compressor HG88 showcased at ISH 2025</t>
-  </si>
-  <si>
-    <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss</t>
-  </si>
-  <si>
-    <t>Copeland: Copeland expands with a new office in Chile: We’ve taken a strategic step to strengthen our presence in Latin America with</t>
-  </si>
-  <si>
-    <t>Dennis Appel to Lead New Controls and Thermal Management Division in Danfoss Climate Solutions</t>
-  </si>
-  <si>
-    <t>Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor. \udd</t>
-  </si>
-  <si>
-    <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4...</t>
-  </si>
-  <si>
-    <t>DORIN USA: Focusing on CO₂</t>
+    <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our latest interview with Ong-art Veerachartyanukul, General Manager of our...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRMTec in 60 seconds: technology, precision, passion.We manufacture screw and piston compressors for refrigeration, fully designed and made in Italy. Each compressor is tested twice: performance and...</t>
+  </si>
+  <si>
+    <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environmentally responsible refrigerants.From cutting-edge compressor designs to...</t>
+  </si>
+  <si>
+    <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland that will be responsible for leading the global implementation of...</t>
+  </si>
+  <si>
+    <t>Industrial applications demand reliability, precision and efficiency. Copeland’s innovative Vilter single-screw compression technology has proven to be up to the task, delivering superior performance...</t>
+  </si>
+  <si>
+    <t>We were thrilled to host the North Florida Refrigerating Engineers &amp; Technicians Association (RETA) - Official Page Chapter meeting at our #FrascoldUSA office, the first chapter meeting of the...</t>
+  </si>
+  <si>
+    <t>Mark your calendars for June 12, 2025, at 11 am CET, as we’re hosting an online session – Retrofitting Commercial Buildings with Modulating Room Control. Discover how transitioning from traditional...</t>
+  </si>
+  <si>
+    <t>Copeland has partnered with Ecozen to deliver solar-powered cold room systems that enable efficient, off-grid refrigeration for the agricultural sector in India. Powered by our variable speed...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Join Our Dynamic Team at Snowman Group! We are excited to announce the following openings: Sales Engineer (Food chain industry; Chemical, Oil &amp; Gas industry) After-sales Service EngineerIf you’re...</t>
+  </si>
+  <si>
+    <t>Copeland’s Sensi Equipment Interface Module (Indoor + Outdoor) is a new interface module that eliminates the need for pulling additional HVAC wiring to the thermostat, helping solve installation...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JARN interviewed Ong-Art Veerachartyanukul, general manager of Copeland’s facility in Rayong, Thailand, who talked about Copeland’s advancing</t>
+  </si>
+  <si>
+    <t>Innovations in refrigeration are shaping a more sustainable, efficient future across North America. On June 11 at the ATMOsphere America Summit 2025 in Atlanta, Andre Patenaude, CET, director of...</t>
+  </si>
+  <si>
+    <t>NeoCharge is transforming industrial refrigeration by reducing refrigerant charge in both new and existing systems. With easy installation, it offers significant energy savings and increased capacity...</t>
+  </si>
+  <si>
+    <t>From Deep-Sea Fishing to End-Point RetailSnowman Refrigeration Technology Locks in Every Bite of Freshness.See you at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!  Venue: Fuzhou Strait...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looking back on an inspiring day: “#Hydrocarbons in the Future of #HVACR” – Padua, May 23.The energy, insights and meaningful exchanges of May 23 are still with us.A day that brought together...</t>
   </si>
   <si>
     <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão impulsionando a transição energética e acelerando a adoção de...</t>
@@ -1048,12 +1108,12 @@
     <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity,...</t>
   </si>
   <si>
+    <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
+  </si>
+  <si>
     <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
-  </si>
-  <si>
     <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This...</t>
   </si>
   <si>
@@ -1516,18 +1576,18 @@
     <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2...</t>
   </si>
   <si>
+    <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
   </si>
   <si>
     <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
-  </si>
-  <si>
     <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners,...</t>
   </si>
   <si>
@@ -1627,12 +1687,12 @@
     <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression...</t>
   </si>
   <si>
+    <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in...</t>
+  </si>
+  <si>
     <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to...</t>
   </si>
   <si>
-    <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in...</t>
-  </si>
-  <si>
     <t>DENMARK: Danfoss Climate Solutions has named Dennis Appel as divisional president of its newly established Controls and Thermal Management division.</t>
   </si>
   <si>
@@ -1648,31 +1708,49 @@
     <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity,...</t>
   </si>
   <si>
-    <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Discover how switch set-ups, sensors, and advanced controls can help achieve this....</t>
-  </si>
-  <si>
-    <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A...</t>
-  </si>
-  <si>
-    <t>At ISH 2025, Michael Nagler introduced the BOCK HG88 compressor, which is the largest semi-hermetic compressor offered by the company. This compressor features an 8-cylinder reciprocating design,...</t>
-  </si>
-  <si>
-    <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss of life, destruction, and immense suffering. At Copeland, our thoughts...</t>
-  </si>
-  <si>
-    <t>Copeland has recently opened a new office in Santiago, Chile, as part of a strategic move to enhance its presence in Latin America. The company celebrated this milestone by hosting a special event...</t>
-  </si>
-  <si>
-    <t>Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division. This new division unites the expertise of heat exchangers...</t>
-  </si>
-  <si>
-    <t>Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor.  Featuring an 8-cylinder reciprocating design, it offers the highest swept volume on...</t>
-  </si>
-  <si>
-    <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with...</t>
-  </si>
-  <si>
-    <t>TEKO Refrigeration Americas and Weston S.A.S showcase DORIN CO₂ compressors powering a cutting-edge refrigeration system for over 10,000 m² of refrigerated space.</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334126665112924160</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334111489491881984</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334073630852583424</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333915424494952450</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333885283546943490</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333786437319819264</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333779205492523008</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333711238180327426</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333677525769895936</t>
+  </si>
+  <si>
+    <t>https://www.phcppros.com/articles/21585-copeland-sensi-equipment-interface-module</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/88911</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333477479543672832</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333454503226077184</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333431848183730176</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7333415061496958977</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7333250921482649602</t>
@@ -1879,12 +1957,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7328015991475474434</t>
   </si>
   <si>
+    <t>https://www.industryemea.com/companies/3780-copeland-news</t>
+  </si>
+  <si>
     <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
   </si>
   <si>
-    <t>https://www.industryemea.com/companies/3780-copeland-news</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7327991912190111744</t>
   </si>
   <si>
@@ -2335,18 +2413,18 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7315753878652628995</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
+  </si>
+  <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
   </si>
   <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7314904885848633344</t>
   </si>
   <si>
@@ -2446,12 +2524,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7312737997664239616</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
-  </si>
-  <si>
     <t>https://www.coolingpost.com/world-news/appel-named-president-of-new-danfoss-division/</t>
   </si>
   <si>
@@ -2467,28 +2545,13 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7312353012931301378</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312007463862439936</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311665935185002496</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311356411748233216</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311525908106862592</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311387171351842817</t>
-  </si>
-  <si>
-    <t>https://hvacinsider.com/dennis-appel-to-lead-new-controls-and-thermal-management-division-in-danfoss-climate-solutions/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7311024235601145856</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312368683853479936</t>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
   </si>
   <si>
     <t>2025-05-27</t>
@@ -2654,15 +2717,6 @@
   </si>
   <si>
     <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
   </si>
 </sst>
 </file>
@@ -2723,8 +2777,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D290" totalsRowShown="0">
-  <autoFilter ref="A1:D290"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D295" totalsRowShown="0">
+  <autoFilter ref="A1:D295"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Summary"/>
@@ -3020,7 +3074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3045,13 +3099,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3059,13 +3113,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3073,13 +3127,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="D4" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3087,13 +3141,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D5" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3101,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3115,13 +3169,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3129,13 +3183,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3143,13 +3197,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D9" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3157,13 +3211,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="D10" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3171,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D11" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3185,13 +3239,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3199,13 +3253,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="D13" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3213,13 +3267,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D14" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3227,685 +3281,685 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D15" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="D16" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D18" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D19" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D20" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D21" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D22" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D23" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D24" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D25" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D26" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D27" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D28" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D29" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D30" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D31" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D32" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D33" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D34" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D35" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D36" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D37" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D38" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="D39" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D40" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="D41" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D42" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D43" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D44" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D45" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D46" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D47" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D48" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D49" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D50" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D51" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D52" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D53" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D54" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="D55" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D56" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="D57" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D58" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="D59" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D60" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="D61" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D62" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D63" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3913,13 +3967,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D64" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3927,13 +3981,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D65" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3941,13 +3995,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="D66" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3955,13 +4009,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D67" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3969,13 +4023,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D68" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3983,13 +4037,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D69" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3997,13 +4051,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D70" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4011,13 +4065,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="D71" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4025,13 +4079,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D72" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4039,13 +4093,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D73" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4053,13 +4107,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D74" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4067,237 +4121,237 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="D75" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D76" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D77" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D78" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="D79" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D80" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D81" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D82" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D83" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="D84" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D85" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D86" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="D87" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D88" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D89" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="D90" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D91" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4305,13 +4359,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D92" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4319,13 +4373,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D93" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4333,13 +4387,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="D94" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4347,13 +4401,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="D95" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4361,13 +4415,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="D96" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4375,13 +4429,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D97" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4389,13 +4443,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="D98" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4403,13 +4457,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="D99" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4417,13 +4471,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="D100" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4431,13 +4485,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="D101" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4445,13 +4499,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="D102" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4459,13 +4513,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="D103" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4473,13 +4527,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="D104" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4487,13 +4541,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="D105" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4501,13 +4555,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D106" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4515,13 +4569,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D107" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4529,13 +4583,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="D108" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4543,13 +4597,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="D109" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4557,13 +4611,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="D110" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4571,13 +4625,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="D111" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4585,13 +4639,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="D112" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4599,13 +4653,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="D113" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4613,13 +4667,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="D114" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4627,13 +4681,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="D115" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4641,13 +4695,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="D116" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4655,13 +4709,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="D117" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4669,13 +4723,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="D118" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4683,13 +4737,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="D119" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4697,237 +4751,237 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="D120" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="D121" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="D122" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="D123" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="D124" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="D125" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="D126" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D127" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="D128" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="D129" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="D130" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="D131" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="D132" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="D133" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D134" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="D135" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D136" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4935,13 +4989,13 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="D137" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4949,13 +5003,13 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="D138" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4963,13 +5017,13 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="D139" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4977,13 +5031,13 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="D140" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4991,251 +5045,251 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="D141" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D142" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="D143" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="D144" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="D145" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="D146" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="D147" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="D148" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="D149" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="D150" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="D151" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="D152" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="D153" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="D154" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="D155" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="D156" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="D157" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="D158" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5243,13 +5297,13 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="D159" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5257,13 +5311,13 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="D160" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5271,13 +5325,13 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="D161" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5285,13 +5339,13 @@
         <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="D162" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5299,13 +5353,13 @@
         <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="D163" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5313,13 +5367,13 @@
         <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D164" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5327,13 +5381,13 @@
         <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="D165" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5341,13 +5395,13 @@
         <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="D166" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5355,685 +5409,685 @@
         <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="D167" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="D168" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="D169" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="D170" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="D171" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="D172" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D173" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="D174" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D175" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="D176" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="D177" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D178" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="D179" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B180" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="D180" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="D181" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D182" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D183" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="D184" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D185" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B186" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D186" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B187" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D187" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B188" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D188" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="B189" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="D189" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="D190" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B191" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="D191" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B192" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D192" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B193" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D193" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="D194" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="D195" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D196" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B197" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="D197" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B198" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D198" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B199" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D199" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="B200" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="D200" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B201" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="D201" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="D202" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="D203" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="D204" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="D205" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="D206" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B207" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="D207" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B208" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D208" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B209" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="D209" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="D210" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="D211" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B212" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="D212" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B213" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="D213" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B214" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="D214" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="B215" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="D215" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6041,13 +6095,13 @@
         <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="D216" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6055,13 +6109,13 @@
         <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="D217" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6069,13 +6123,13 @@
         <v>208</v>
       </c>
       <c r="B218" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="D218" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6083,13 +6137,13 @@
         <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="D219" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6097,13 +6151,13 @@
         <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="D220" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6111,13 +6165,13 @@
         <v>211</v>
       </c>
       <c r="B221" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="D221" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6125,13 +6179,13 @@
         <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="D222" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6139,13 +6193,13 @@
         <v>213</v>
       </c>
       <c r="B223" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="D223" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6153,13 +6207,13 @@
         <v>214</v>
       </c>
       <c r="B224" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="D224" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6167,13 +6221,13 @@
         <v>215</v>
       </c>
       <c r="B225" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D225" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6181,13 +6235,13 @@
         <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D226" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6195,13 +6249,13 @@
         <v>217</v>
       </c>
       <c r="B227" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="D227" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6209,13 +6263,13 @@
         <v>218</v>
       </c>
       <c r="B228" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="D228" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6223,13 +6277,13 @@
         <v>219</v>
       </c>
       <c r="B229" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="D229" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6237,13 +6291,13 @@
         <v>220</v>
       </c>
       <c r="B230" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="D230" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6251,13 +6305,13 @@
         <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D231" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6265,13 +6319,13 @@
         <v>222</v>
       </c>
       <c r="B232" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="D232" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6279,13 +6333,13 @@
         <v>223</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="D233" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6293,13 +6347,13 @@
         <v>224</v>
       </c>
       <c r="B234" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="D234" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6307,13 +6361,13 @@
         <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="D235" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6321,307 +6375,307 @@
         <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D236" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B237" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="D237" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B238" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="D238" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="D239" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="D240" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="D241" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D242" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D243" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B244" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="D244" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="D245" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B246" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D246" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B247" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="D247" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D248" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D249" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B250" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="D250" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B251" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D251" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B252" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D252" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B253" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="D253" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B254" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="D254" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="D255" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="D256" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B257" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="D257" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6629,83 +6683,83 @@
         <v>244</v>
       </c>
       <c r="B258" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="D258" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B259" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="D259" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B260" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D260" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B261" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="D261" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="D262" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="B263" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="D263" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6713,13 +6767,13 @@
         <v>250</v>
       </c>
       <c r="B264" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="D264" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6727,13 +6781,13 @@
         <v>251</v>
       </c>
       <c r="B265" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="D265" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6741,13 +6795,13 @@
         <v>252</v>
       </c>
       <c r="B266" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D266" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6755,13 +6809,13 @@
         <v>253</v>
       </c>
       <c r="B267" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="D267" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6769,13 +6823,13 @@
         <v>254</v>
       </c>
       <c r="B268" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="D268" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6783,13 +6837,13 @@
         <v>255</v>
       </c>
       <c r="B269" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="D269" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6797,13 +6851,13 @@
         <v>256</v>
       </c>
       <c r="B270" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="D270" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6811,13 +6865,13 @@
         <v>257</v>
       </c>
       <c r="B271" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="D271" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6825,13 +6879,13 @@
         <v>258</v>
       </c>
       <c r="B272" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="D272" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6839,251 +6893,321 @@
         <v>259</v>
       </c>
       <c r="B273" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="D273" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="B274" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D274" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B275" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="D275" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B276" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="D276" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B277" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="D277" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B278" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="D278" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B279" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="D279" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B280" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="D280" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="D281" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="D282" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D283" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B284" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="D284" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B285" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D285" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B286" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D286" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B287" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="D287" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B288" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D288" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B289" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="D289" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="B290" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="D290" t="s">
-        <v>882</v>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>276</v>
+      </c>
+      <c r="B291" t="s">
+        <v>559</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D291" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>277</v>
+      </c>
+      <c r="B292" t="s">
+        <v>560</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D292" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>278</v>
+      </c>
+      <c r="B293" t="s">
+        <v>561</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D293" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>279</v>
+      </c>
+      <c r="B294" t="s">
+        <v>562</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D294" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>280</v>
+      </c>
+      <c r="B295" t="s">
+        <v>563</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D295" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -7377,10 +7501,15 @@
     <hyperlink ref="C288" r:id="rId287"/>
     <hyperlink ref="C289" r:id="rId288"/>
     <hyperlink ref="C290" r:id="rId289"/>
+    <hyperlink ref="C291" r:id="rId290"/>
+    <hyperlink ref="C292" r:id="rId291"/>
+    <hyperlink ref="C293" r:id="rId292"/>
+    <hyperlink ref="C294" r:id="rId293"/>
+    <hyperlink ref="C295" r:id="rId294"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId290"/>
+    <tablePart r:id="rId295"/>
   </tableParts>
 </worksheet>
 </file>
--- a/updated.xlsx
+++ b/updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="863">
   <si>
     <t>Title</t>
   </si>
@@ -28,6 +28,57 @@
     <t>Date</t>
   </si>
   <si>
+    <t>We are deeply saddened by the passing of Brent Schroeder, a friend, mentor, former colleague and a leader within the air-conditi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next innovation in demanding data center cooling, health care and large chiller applications is here! The Copeland oil-free </t>
+  </si>
+  <si>
+    <t>Drive performance, efficiency, and innovation with Danfoss at iVT Expo Cologne 2025</t>
+  </si>
+  <si>
+    <t>DOE Coolerchips’ Peter De Bock joins Eaton as VP of data center energy &amp; cooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX2-W-G04-Y and TX2-W-G04-Y/H are the Climaveneta branded water source chillers and reversible heat pumps, dedicated to process </t>
+  </si>
+  <si>
+    <t>Romanian hazelnut farm secures €4.6M for expansion</t>
+  </si>
+  <si>
+    <t>On the occasion of China Refrigeration Expo, we interviewed Alvise Dina, Sales Director of #FrascoldChina, right at our booth. I</t>
+  </si>
+  <si>
+    <t>At Danfoss, we recognize waste heat as a pivotal element in our journey toward decarbonization. Discover how recovering and reus</t>
+  </si>
+  <si>
+    <t>Food retail leaders globally are adopting solutions to meet sustainability and zero-emissions goals, supported by low-GWP refrig</t>
+  </si>
+  <si>
+    <t>Explore Scout, the new AI feature in Copeland Mobile. Scout provides tailored results for Copeland products and continuously imp</t>
+  </si>
+  <si>
+    <t>Danfoss Opens Danfoss Nanjing Park</t>
+  </si>
+  <si>
+    <t>Hanbell Establishes a New Company for Reciprocating Compressors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join Jamie Kitchen and guests Jörg Saar and John Broughton in the latest episode of "Taking the Temperature on HVACR." Discover </t>
+  </si>
+  <si>
+    <t>Danfoss Delivers AC Drives for Finnish Navy’s Four Corvettes</t>
+  </si>
+  <si>
+    <t>Two years ago, Copeland started its journey as a standalone company. Today, we’re proud to pause and celebrate our momentum</t>
+  </si>
+  <si>
+    <t>As the HVACR industry experiences rapid change, contractors face challenges in service supply and system performance. In our rec</t>
+  </si>
+  <si>
+    <t>3f3 The countdown is on! Join us on June 4 and 5 at the Datacloud Global Congress 2025 in Cannes, where we will showcase tech</t>
+  </si>
+  <si>
     <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our</t>
   </si>
   <si>
@@ -37,6 +88,9 @@
     <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environment</t>
   </si>
   <si>
+    <t>Join Tony Mormino in an engaging conversation with Lenny Diaddario of Copeland Compressors and Chris Harris of NC3 Training as t</t>
+  </si>
+  <si>
     <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland tha</t>
   </si>
   <si>
@@ -268,12 +322,12 @@
     <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manag</t>
   </si>
   <si>
+    <t>Copeland expands US partnership with Mysa smart thermostats</t>
+  </si>
+  <si>
     <t>Copeland News</t>
   </si>
   <si>
-    <t>Copeland expands US partnership with Mysa smart thermostats</t>
-  </si>
-  <si>
     <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in</t>
   </si>
   <si>
@@ -727,18 +781,18 @@
     <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on gr...</t>
   </si>
   <si>
+    <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
+  </si>
+  <si>
     <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
   </si>
   <si>
     <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
   </si>
   <si>
-    <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
-  </si>
-  <si>
     <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps sup</t>
   </si>
   <si>
@@ -769,94 +823,55 @@
     <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability wit..</t>
   </si>
   <si>
-    <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + Water Still buzzing fro...</t>
-  </si>
-  <si>
-    <t>Acquisition Expands Bradford White’s Manufacturing Capacity</t>
-  </si>
-  <si>
-    <t>Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold</t>
-  </si>
-  <si>
-    <t>Danfoss and Assemblin Caverion Group Sign New Agreement to Advance Building Decarbonization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager  Today we take you on a tour of a role t</t>
-  </si>
-  <si>
-    <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in P</t>
-  </si>
-  <si>
-    <t>GEA: GEA acquires stake in heat storage provider Caldera</t>
-  </si>
-  <si>
-    <t>Bradford White Announces Acquisition of Bock Water Heaters</t>
-  </si>
-  <si>
-    <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial ...</t>
-  </si>
-  <si>
-    <t>G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
-  </si>
-  <si>
-    <t>Frascold: G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
-  </si>
-  <si>
-    <t>Danfoss: Danfoss and Assemblin Caverion Group renewed their framework agreement</t>
-  </si>
-  <si>
-    <t>The Big Gigs: 10 best concerts to see in the Twin Cities this week</t>
-  </si>
-  <si>
-    <t>Copeland Invests in BlueHeart Energy to Advance Thermo-Acoustic Heat Pump Technology</t>
-  </si>
-  <si>
-    <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland </t>
-  </si>
-  <si>
-    <t>Innomotics und Danfoss Drives erweitern strategische Partnerschaft</t>
-  </si>
-  <si>
-    <t>Copeland invests in thermo-acoustic heat pump</t>
-  </si>
-  <si>
-    <t>Copeland: Copeland invests in BlueHeart’s thermo-acoustic-based heating technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in </t>
-  </si>
-  <si>
-    <t>Zudek Chillers (IT): Ammonia Chiller with SH Screws Compressors by Frascold</t>
-  </si>
-  <si>
-    <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, t</t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kit</t>
-  </si>
-  <si>
-    <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing f..</t>
-  </si>
-  <si>
-    <t>Danfoss Power Solutions introduces full-flow high-pressure relief valve for H1B motor</t>
-  </si>
-  <si>
-    <t>Appel named president of new Danfoss division</t>
-  </si>
-  <si>
-    <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step f</t>
-  </si>
-  <si>
-    <t>2025 will be a game-changer for HVAC/R! Are you ready? #Frascold is set to launch new series of semi-hermetic #compressors, desi</t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie...</t>
-  </si>
-  <si>
-    <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office ble</t>
+    <t>We are deeply saddened by the passing of Brent Schroeder, a friend, mentor, former colleague and a leader within the air-conditioning and refrigeration industry. Brent spent 35 years at Copeland...</t>
+  </si>
+  <si>
+    <t>The next innovation in demanding data center cooling, health care and large chiller applications is here! The Copeland oil-free centrifugal compressor with frictionless Aero-lift bearing technology...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> June 3, 2025 June 2, 2025 — NORDBORG, DENMARK — Danfoss Power Solutions will highlight its latest technologies for off- and on-highway machinery at iVT Expo 2025, June 11-12, in Cologne, Germany.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As ARPA-E faces dramatic cuts to its budget The head of the Department of Energy’s data center cooling research effort has left for equipment supplier Eaton.</t>
+  </si>
+  <si>
+    <t>TX2-W-G04-Y and TX2-W-G04-Y/H are the Climaveneta branded water source chillers and reversible heat pumps, dedicated to process applications. The range, with capacity from 191 to 2069 kW, has...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dorin Bob, an entrepreneur from Transylvania, Romania, has secured €4.6 million in European funding to expand and modernize a major hazelnut plantation.</t>
+  </si>
+  <si>
+    <t>On the occasion of China Refrigeration Expo, we interviewed Alvise Dina, Sales Director of #FrascoldChina, right at our booth.In this short video, Alvise shares insights into #Frascold’s presence in...</t>
+  </si>
+  <si>
+    <t>At Danfoss, we recognize waste heat as a pivotal element in our journey toward decarbonization. Discover how recovering and reusing excess heat can significantly enhance energy efficiency and drive...</t>
+  </si>
+  <si>
+    <t>Food retail leaders globally are adopting solutions to meet sustainability and zero-emissions goals, supported by low-GWP refrigerants that reduce energy waste. Copeland’s CO₂ scroll refrigeration...</t>
+  </si>
+  <si>
+    <t>Explore Scout, the new AI feature in Copeland Mobile. Scout provides tailored results for Copeland products and continuously improves through advanced learning. Available 24/7 on mobile and desktop,...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On April 23, the opening ceremony for Danfoss Nanjing Park was held in the Nanjing Economic Development Zone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Hanbell Reciprocating Machinery was officially established with a registered capital of RMB 10 million (about US$ 1.38 million). The business</t>
+  </si>
+  <si>
+    <t>Join Jamie Kitchen and guests Jörg Saar and John Broughton in the latest episode of "Taking the Temperature on HVACR." Discover how temperature and pressure interact within refrigeration systems and...</t>
+  </si>
+  <si>
+    <t>Vaasa, Finland-based Danfoss Drives is supplying variable-speed AC drives for the propulsion systems of the Finnish Navy’s four Pohjanmaa-class multi-role corvettes. Part of the Finnish Defense...</t>
+  </si>
+  <si>
+    <t>Two years ago, Copeland started its journey as a standalone company. Today, we’re proud to pause and celebrate our momentum and opportunities ahead.To our 18,000 colleagues, thank you for your...</t>
+  </si>
+  <si>
+    <t>As the HVACR industry experiences rapid change, contractors face challenges in service supply and system performance. In our recent webinar in collaboration with Air Conditioning Contractors of...</t>
+  </si>
+  <si>
+    <t>3f3 The countdown is on! Join us on June 4 and 5 at the Datacloud Global Congress 2025 in Cannes, where we will showcase technologies that help data centers reduce energy use, enhance cooling...</t>
   </si>
   <si>
     <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our latest interview with Ong-art Veerachartyanukul, General Manager of our...</t>
@@ -868,6 +883,9 @@
     <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environmentally responsible refrigerants.From cutting-edge compressor designs to...</t>
   </si>
   <si>
+    <t>Join Tony Mormino in an engaging conversation with Lenny Diaddario of Copeland Compressors and Chris Harris of NC3 Training as they dive into the importance of education and hands-on training in the...</t>
+  </si>
+  <si>
     <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland that will be responsible for leading the global implementation of...</t>
   </si>
   <si>
@@ -1108,12 +1126,12 @@
     <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity,...</t>
   </si>
   <si>
+    <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
   </si>
   <si>
-    <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
-  </si>
-  <si>
     <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This...</t>
   </si>
   <si>
@@ -1576,18 +1594,18 @@
     <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2...</t>
   </si>
   <si>
+    <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
   </si>
   <si>
     <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
-  </si>
-  <si>
     <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners,...</t>
   </si>
   <si>
@@ -1615,97 +1633,55 @@
     <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability with #R290. Our #Frascold Z model piston #compressors deliver top...</t>
   </si>
   <si>
-    <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + WaterStill buzzing from the vibes at the fair (17–21 March)!A huge THANK YOU to our awesome #Customers...</t>
-  </si>
-  <si>
-    <t>These businesses are collectively known as Bock Water Heaters, a Wisconsin-based manufacturer of commercial and specialty water-heating and -storage products.</t>
-  </si>
-  <si>
-    <t>Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold chain solutions driving sustainability and freshness across the food...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Danfoss and Assemblin Caverion Group have signed a new framework agreement to strengthen their cooperation on building renovations and decarbonization efforts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager Today we take you on a tour of a role that is fundamental to the functioning of our company: the Warehouse Manager. We have EROS...</t>
-  </si>
-  <si>
-    <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in Plastics (CIP) project, Danfoss and 16 industry leaders explored this...</t>
-  </si>
-  <si>
-    <t>GEA is investing twelve million euros in the British company Caldera. Caldera has developed electric Storage Boilers that can store electricity in the form of heat that can be extracted on demand....</t>
-  </si>
-  <si>
-    <t>Bradford White Corporation, an industry-leading manufacturer of water heaters, boilers and storage tanks, has announced the acquisition of Universal Technologies of Wisconsin Inc., Bock Water...</t>
-  </si>
-  <si>
-    <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial businesses.With extensive global leadership experience and a focus on...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> An innovative solution serving New Belgium Brewing 02 April 2025 G&amp;D Chillers chooses Frascold compressors for the Elite 290 series, an innovative and sustainable solution for New Belgium Brewing.</t>
-  </si>
-  <si>
-    <t>G&amp;D Chillers has chosen Frascold Z model piston compressors for their new Elite 290 chiller series, which utilizes propane (R290) as a natural refrigerant to align with global regulations aimed at...</t>
-  </si>
-  <si>
-    <t>Danfoss and Assemblin Caverion Group have solidified their commitment to sustainability by signing a new framework agreement in Nordborg, Denmark. The agreement focuses on project work in various...</t>
-  </si>
-  <si>
-    <t>Highlights for April 3-9 include Bob Dylan, the O’Jays, Tyler Childers, the Suburbs, Bright Eyes, Jack White, Shemekia Copeland and the Hard Quartet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Copeland has announced a strategic investment in BlueHeart Energy, a Netherlands-based startup developing a thermo-acoustic heat pump.</t>
-  </si>
-  <si>
-    <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and authentic, always apply directly through our official website at...</t>
-  </si>
-  <si>
-    <t>Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland will present at the Coalition for Renewable Natural Gas Wednesday...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consent to Cookies &amp; Data processing Die Innomotics GmbH , Nürnberg, und das dänische Unternehmen Danfoss Drives beginnen die nächste Phase ihrer strategischen, nicht-exklusiven Partnerschaft.</t>
-  </si>
-  <si>
-    <t>USA: Copeland has invested in BlueHeart Energy, a Netherlands-based startup developing a novel thermo-acoustic-based heating technology.</t>
-  </si>
-  <si>
-    <t>Copeland has made a strategic investment in BlueHeart Energy, a Netherlands-based startup that is developing innovative heat pump technology. BlueHeart’s thermo-acoustic-based heating technology has...</t>
-  </si>
-  <si>
-    <t>Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in BlueHeart Energy, accelerating next-generation heating and cooling technologies that...</t>
-  </si>
-  <si>
-    <t>Linkedin Video: The industry is shifting towards more efficient and sustainable solutions, as highlighted in an interview with Jakob Tercon from Zudek discussing the air-cooled chiller with Frascold...</t>
-  </si>
-  <si>
-    <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, they retrofitted their system with our NeoCharge, achieving: 705 Ammonia...</t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about importance of hydronic...</t>
-  </si>
-  <si>
-    <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression...</t>
-  </si>
-  <si>
-    <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in...</t>
-  </si>
-  <si>
-    <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to...</t>
-  </si>
-  <si>
-    <t>DENMARK: Danfoss Climate Solutions has named Dennis Appel as divisional president of its newly established Controls and Thermal Management division.</t>
-  </si>
-  <si>
-    <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step forward in collaboration and innovation. With representatives from 26...</t>
-  </si>
-  <si>
-    <t>2025 will be a game-changer for HVAC/R! Are you ready?#Frascold is set to launch new series of semi-hermetic #compressors, designed to push boundaries and deliver cutting-edge solutions. With...</t>
-  </si>
-  <si>
-    <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about the importance of...</t>
-  </si>
-  <si>
-    <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity,...</t>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335787631324057601</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335742157892255744</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/89014</t>
+  </si>
+  <si>
+    <t>https://www.datacenterdynamics.com/en/news/doe-coolerchips-peter-de-bock-joins-eaton-as-vp-of-data-center-energy-cooling/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335636602922110976</t>
+  </si>
+  <si>
+    <t>https://www.freshplaza.com/europe/article/9737382/romanian-hazelnut-farm-secures-eur4-6m-for-expansion/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335597810764894210</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335587321536294913</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335545929338392577</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335341999199264768</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/88976</t>
+  </si>
+  <si>
+    <t>https://www.ejarn.com/article/detail/88973</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334496373041455105</t>
+  </si>
+  <si>
+    <t>https://www.maritime-executive.com/corporate/danfoss-delivers-ac-drives-for-finnish-navy-s-four-corvettes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334224694562213888</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334217576316575744</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7334170465151737857</t>
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7334126665112924160</t>
@@ -1717,6 +1693,9 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7334073630852583424</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7335364584339292160</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7333915424494952450</t>
   </si>
   <si>
@@ -1957,12 +1936,12 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7328015991475474434</t>
   </si>
   <si>
+    <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
+  </si>
+  <si>
     <t>https://www.industryemea.com/companies/3780-copeland-news</t>
   </si>
   <si>
-    <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7327991912190111744</t>
   </si>
   <si>
@@ -2413,18 +2392,18 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7315753878652628995</t>
   </si>
   <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
+  </si>
+  <si>
+    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
+  </si>
+  <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
   </si>
   <si>
     <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
   </si>
   <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7314904885848633344</t>
   </si>
   <si>
@@ -2452,97 +2431,16 @@
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7313842082765246465</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7313816723864924160</t>
-  </si>
-  <si>
-    <t>https://www.achrnews.com/articles/164398-acquisition-expands-bradford-whites-manufacturing-capacity</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7313546069307453440</t>
-  </si>
-  <si>
-    <t>https://refindustry.com/news/market-news/danfoss-and-assemblin-caverion-group-sign-new-agreement-to-advance-building-decarbonization/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7313508481964163073</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7313485474302496769</t>
-  </si>
-  <si>
-    <t>https://www.gea.com/en/news/trade-press/2025/stake-heat-storage-caldera/</t>
-  </si>
-  <si>
-    <t>https://www.phcppros.com/articles/21263-bradford-white-announces-acquisition-of-bock-water-heaters</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7313289612209135617</t>
-  </si>
-  <si>
-    <t>https://www.ejarn.com/article/detail/88128</t>
-  </si>
-  <si>
-    <t>https://www.frascold.it/en/case-studies-and-partnerships-news-events/gd-chillers-chooses-frascold-elite-290-series</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/?utm_source=LinkedIn&amp;utm_medium=social_organic&amp;utm_campaign=Danfoss_and_Assemblin_Caverion_Group_partnership_cid_4199153</t>
-  </si>
-  <si>
-    <t>https://www.startribune.com/bob-dylan-ojays-tyler-childers-shemekia-copeland-jack-white-bright-eyes-hard-quartet/601316157</t>
-  </si>
-  <si>
-    <t>https://refindustry.com/news/market-news/copeland-invests-in-blueheart-energy-to-advance-thermo-acoustic-heat-pump-technology/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312926303723167744</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312920495283191808</t>
-  </si>
-  <si>
-    <t>https://industrieanzeiger.industrie.de/news/innomotics-und-danfoss-drives-erweitern-strategische-partnerschaft/</t>
-  </si>
-  <si>
-    <t>https://www.coolingpost.com/world-news/copeland-invests-in-thermo-acoustic-heat-pump/</t>
-  </si>
-  <si>
-    <t>https://www.copeland.com/en-us/news/copeland-invests-in-blueheart-energy</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312807262144581632</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312801148569067520</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312790846116950016</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312748010696822785</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312737997664239616</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
-  </si>
-  <si>
-    <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
-  </si>
-  <si>
-    <t>https://www.coolingpost.com/world-news/appel-named-president-of-new-danfoss-division/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312549579562827776</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312406983322574848</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312383225274773506</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/update/urn:li:activity:7312353012931301378</t>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
   </si>
   <si>
     <t>2025-05-30</t>
@@ -2705,18 +2603,6 @@
   </si>
   <si>
     <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
   </si>
 </sst>
 </file>
@@ -2777,8 +2663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D295" totalsRowShown="0">
-  <autoFilter ref="A1:D295"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D282" totalsRowShown="0">
+  <autoFilter ref="A1:D282"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Summary"/>
@@ -3074,7 +2960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3099,13 +2985,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3113,13 +2999,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3127,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3141,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3155,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3169,13 +3055,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3183,13 +3069,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D8" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3197,13 +3083,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3211,13 +3097,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3225,13 +3111,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D11" t="s">
-        <v>845</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3239,13 +3125,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3253,13 +3139,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="D13" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3267,13 +3153,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D14" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3281,13 +3167,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3295,13 +3181,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D16" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3309,13 +3195,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="D17" t="s">
-        <v>846</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3323,13 +3209,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="D18" t="s">
-        <v>846</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3337,13 +3223,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D19" t="s">
-        <v>846</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3351,13 +3237,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D20" t="s">
-        <v>846</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3365,13 +3251,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="D21" t="s">
-        <v>846</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3379,13 +3265,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="D22" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3393,13 +3279,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="D23" t="s">
-        <v>847</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3407,13 +3293,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="D24" t="s">
-        <v>847</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3421,13 +3307,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="D25" t="s">
-        <v>847</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3435,13 +3321,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D26" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3449,13 +3335,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="D27" t="s">
-        <v>849</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3463,13 +3349,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D28" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3477,13 +3363,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="D29" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3491,265 +3377,265 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="D30" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="D31" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D32" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="D33" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="D34" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="D35" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D36" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="D38" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="D39" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="D40" t="s">
-        <v>853</v>
+        <v>812</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="D41" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="D42" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="D43" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="D44" t="s">
-        <v>853</v>
+        <v>814</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="D45" t="s">
-        <v>853</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="D46" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="D47" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="D48" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3757,461 +3643,461 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="D49" t="s">
-        <v>854</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="D50" t="s">
-        <v>854</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="D51" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D52" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D53" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="D54" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D55" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="D56" t="s">
-        <v>857</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="D57" t="s">
-        <v>857</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="D58" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D59" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="D60" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="D61" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="D62" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="D63" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="D64" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="D65" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D66" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="D67" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D68" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="D69" t="s">
-        <v>859</v>
+        <v>821</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="D70" t="s">
-        <v>859</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="D71" t="s">
-        <v>859</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="D72" t="s">
-        <v>859</v>
+        <v>822</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="D73" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="D74" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="D75" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="D76" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="D77" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="D78" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="D79" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="D80" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="D81" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4219,13 +4105,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D82" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4233,13 +4119,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D83" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4247,13 +4133,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="D84" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4261,13 +4147,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="D85" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4275,13 +4161,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="D86" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4289,13 +4175,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D87" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4303,13 +4189,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="D88" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4317,13 +4203,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D89" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4331,279 +4217,279 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="D90" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="D91" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="D92" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="D93" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="D94" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D95" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="D96" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D97" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D98" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="D99" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D100" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D101" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="D102" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="D103" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="D104" t="s">
-        <v>864</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="D105" t="s">
-        <v>864</v>
+        <v>826</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="D106" t="s">
-        <v>864</v>
+        <v>826</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="D107" t="s">
-        <v>864</v>
+        <v>826</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="D108" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="D109" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4611,13 +4497,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="D110" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4625,13 +4511,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="D111" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4639,13 +4525,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="D112" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4653,13 +4539,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="D113" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4667,13 +4553,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="D114" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4681,13 +4567,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D115" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4695,13 +4581,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="D116" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4709,13 +4595,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="D117" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4723,13 +4609,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D118" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4737,13 +4623,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="D119" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4751,13 +4637,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="D120" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4765,13 +4651,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="D121" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4779,13 +4665,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="D122" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4793,13 +4679,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D123" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4807,13 +4693,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="D124" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4821,13 +4707,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="D125" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4835,13 +4721,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="D126" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4849,13 +4735,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="D127" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4863,13 +4749,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="D128" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4877,13 +4763,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="D129" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4891,13 +4777,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="D130" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4905,13 +4791,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="D131" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4919,13 +4805,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="D132" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4933,13 +4819,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="D133" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4947,13 +4833,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="D134" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4961,279 +4847,279 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="D135" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="D136" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="D137" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="D138" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="D139" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="D140" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="D141" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="D142" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="D143" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="D144" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="D145" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="D146" t="s">
-        <v>872</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="D147" t="s">
-        <v>872</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D148" t="s">
-        <v>872</v>
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="D149" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="D150" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="D151" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="D152" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="D153" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="B154" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="D154" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5241,13 +5127,13 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="D155" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5255,293 +5141,293 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="D156" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="D157" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="D158" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="D159" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="D160" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="D161" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="D162" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="D163" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="D164" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="D165" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="D166" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="D167" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="D168" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="D169" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="D170" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="D171" t="s">
-        <v>875</v>
+        <v>838</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="D172" t="s">
-        <v>875</v>
+        <v>838</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="D173" t="s">
-        <v>876</v>
+        <v>838</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="D174" t="s">
-        <v>876</v>
+        <v>839</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="D175" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="D176" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5549,13 +5435,13 @@
         <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D177" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5563,13 +5449,13 @@
         <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="D178" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5577,13 +5463,13 @@
         <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="D179" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5591,13 +5477,13 @@
         <v>174</v>
       </c>
       <c r="B180" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="D180" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5605,13 +5491,13 @@
         <v>175</v>
       </c>
       <c r="B181" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="D181" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5619,727 +5505,727 @@
         <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="D182" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="D183" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B184" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="D184" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="D185" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B186" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="D186" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B187" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="D187" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="D188" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="D189" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B190" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="D190" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="D191" t="s">
-        <v>879</v>
+        <v>842</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B192" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="D192" t="s">
-        <v>879</v>
+        <v>842</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B193" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="D193" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="D194" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B195" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="D195" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B196" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="D196" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B197" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="D197" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="D198" t="s">
-        <v>880</v>
+        <v>843</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B199" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="D199" t="s">
-        <v>881</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="D200" t="s">
-        <v>881</v>
+        <v>843</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D201" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="D202" t="s">
-        <v>881</v>
+        <v>844</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="D203" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="D204" t="s">
-        <v>883</v>
+        <v>844</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="D205" t="s">
-        <v>883</v>
+        <v>844</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="D206" t="s">
-        <v>883</v>
+        <v>845</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="B207" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="D207" t="s">
-        <v>884</v>
+        <v>845</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B208" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="D208" t="s">
-        <v>884</v>
+        <v>845</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B209" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="D209" t="s">
-        <v>884</v>
+        <v>845</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B210" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="D210" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B211" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="D211" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B212" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="D212" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B213" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="D213" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B214" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="D214" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="B215" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="D215" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B216" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="D216" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B217" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="D217" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B218" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="D218" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D219" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="D220" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="D221" t="s">
-        <v>887</v>
+        <v>848</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B222" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="D222" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B223" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="D223" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="D224" t="s">
-        <v>888</v>
+        <v>849</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B225" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="D225" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="D226" t="s">
-        <v>889</v>
+        <v>850</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B227" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="D227" t="s">
-        <v>889</v>
+        <v>850</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="D228" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="D229" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="D230" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="D231" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B232" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="D232" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="D233" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6347,13 +6233,13 @@
         <v>224</v>
       </c>
       <c r="B234" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="D234" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6361,13 +6247,13 @@
         <v>225</v>
       </c>
       <c r="B235" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="D235" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6375,13 +6261,13 @@
         <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="D236" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6389,13 +6275,13 @@
         <v>227</v>
       </c>
       <c r="B237" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="D237" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6403,13 +6289,13 @@
         <v>228</v>
       </c>
       <c r="B238" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="D238" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6417,13 +6303,13 @@
         <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="D239" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6431,13 +6317,13 @@
         <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="D240" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6445,13 +6331,13 @@
         <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="D241" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6459,13 +6345,13 @@
         <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="D242" t="s">
-        <v>892</v>
+        <v>854</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6473,13 +6359,13 @@
         <v>233</v>
       </c>
       <c r="B243" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="D243" t="s">
-        <v>892</v>
+        <v>854</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6487,13 +6373,13 @@
         <v>234</v>
       </c>
       <c r="B244" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="D244" t="s">
-        <v>892</v>
+        <v>855</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6501,13 +6387,13 @@
         <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="D245" t="s">
-        <v>893</v>
+        <v>855</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6515,13 +6401,13 @@
         <v>236</v>
       </c>
       <c r="B246" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="D246" t="s">
-        <v>893</v>
+        <v>855</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6529,13 +6415,13 @@
         <v>237</v>
       </c>
       <c r="B247" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="D247" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6543,13 +6429,13 @@
         <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="D248" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6557,13 +6443,13 @@
         <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="D249" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6571,13 +6457,13 @@
         <v>240</v>
       </c>
       <c r="B250" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="D250" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6585,349 +6471,349 @@
         <v>241</v>
       </c>
       <c r="B251" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="D251" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B252" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D252" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B253" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="D253" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B254" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="D254" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B255" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="D255" t="s">
-        <v>895</v>
+        <v>858</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B256" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="D256" t="s">
-        <v>895</v>
+        <v>858</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B257" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="D257" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B258" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="D258" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B259" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="D259" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B260" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="D260" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B261" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="D261" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B262" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D262" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="B263" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D263" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B264" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="D264" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B265" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="D265" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B266" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="D266" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="D267" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B268" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="D268" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B269" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="D269" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B270" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="D270" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B271" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="D271" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B272" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="D272" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B273" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="D273" t="s">
-        <v>898</v>
+        <v>861</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B274" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="D274" t="s">
-        <v>898</v>
+        <v>861</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B275" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="D275" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6935,83 +6821,83 @@
         <v>262</v>
       </c>
       <c r="B276" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="D276" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B277" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="D277" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="D278" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B279" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="D279" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="D280" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="B281" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="D281" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7019,195 +6905,13 @@
         <v>268</v>
       </c>
       <c r="B282" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="D282" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
-        <v>269</v>
-      </c>
-      <c r="B283" t="s">
-        <v>551</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D283" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
-        <v>270</v>
-      </c>
-      <c r="B284" t="s">
-        <v>552</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D284" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
-        <v>271</v>
-      </c>
-      <c r="B285" t="s">
-        <v>553</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D285" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
-        <v>272</v>
-      </c>
-      <c r="B286" t="s">
-        <v>554</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D286" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
-        <v>273</v>
-      </c>
-      <c r="B287" t="s">
-        <v>555</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D287" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
-        <v>274</v>
-      </c>
-      <c r="B288" t="s">
-        <v>556</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D288" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
-        <v>275</v>
-      </c>
-      <c r="B289" t="s">
-        <v>557</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="D289" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
-        <v>77</v>
-      </c>
-      <c r="B290" t="s">
-        <v>558</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D290" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
-        <v>276</v>
-      </c>
-      <c r="B291" t="s">
-        <v>559</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D291" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
-        <v>277</v>
-      </c>
-      <c r="B292" t="s">
-        <v>560</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="D292" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
-        <v>278</v>
-      </c>
-      <c r="B293" t="s">
-        <v>561</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D293" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>279</v>
-      </c>
-      <c r="B294" t="s">
-        <v>562</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D294" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>280</v>
-      </c>
-      <c r="B295" t="s">
-        <v>563</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D295" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -7493,23 +7197,10 @@
     <hyperlink ref="C280" r:id="rId279"/>
     <hyperlink ref="C281" r:id="rId280"/>
     <hyperlink ref="C282" r:id="rId281"/>
-    <hyperlink ref="C283" r:id="rId282"/>
-    <hyperlink ref="C284" r:id="rId283"/>
-    <hyperlink ref="C285" r:id="rId284"/>
-    <hyperlink ref="C286" r:id="rId285"/>
-    <hyperlink ref="C287" r:id="rId286"/>
-    <hyperlink ref="C288" r:id="rId287"/>
-    <hyperlink ref="C289" r:id="rId288"/>
-    <hyperlink ref="C290" r:id="rId289"/>
-    <hyperlink ref="C291" r:id="rId290"/>
-    <hyperlink ref="C292" r:id="rId291"/>
-    <hyperlink ref="C293" r:id="rId292"/>
-    <hyperlink ref="C294" r:id="rId293"/>
-    <hyperlink ref="C295" r:id="rId294"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId295"/>
+    <tablePart r:id="rId282"/>
   </tableParts>
 </worksheet>
 </file>